--- a/docs/試験項目書兼結果報告書/試験項目書兼結果報告書_フォーマット.xlsx
+++ b/docs/試験項目書兼結果報告書/試験項目書兼結果報告書_フォーマット.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota\git\development-PGcourse-DroneInventorySystem\docs\試験項目書兼結果報告書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kijima/Desktop/develop/development-Java-webCourse/docs/試験項目書兼結果報告書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52664E0-4F4E-4218-A386-6CC1A2EB6947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CF786F-F3B6-8142-9194-8D943180FF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
   </bookViews>
   <sheets>
     <sheet name="試験項目" sheetId="13" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="不具合報告→" sheetId="15" r:id="rId3"/>
     <sheet name="不具合報告" sheetId="1" r:id="rId4"/>
     <sheet name="障害ID_001" sheetId="14" r:id="rId5"/>
+    <sheet name="障害ID_002" sheetId="16" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">エビデンス!$A$1:$AX$176</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">試験項目!$A$1:$U$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">不具合報告!$A$1:$K$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">エビデンス!$A$1:$AL$136</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">試験項目!$A$1:$S$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">不具合報告!$A$1:$J$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>システム名</t>
     <phoneticPr fontId="1"/>
@@ -682,12 +683,16 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>amoibe</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -763,6 +768,22 @@
       <sz val="11"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -981,7 +1002,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1123,6 +1144,72 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1135,77 +1222,32 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1219,44 +1261,38 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1816,8 +1852,8 @@
       <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>217715</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2350,6 +2386,413 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12127017" cy="4210638"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81303F8F-3C3F-C44E-8E88-44481C55FF2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="508000"/>
+          <a:ext cx="12127017" cy="4210638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8983329" cy="5515745"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4423C5C2-096C-D041-A0FE-353932A83895}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="5334000"/>
+          <a:ext cx="8983329" cy="5515745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79021DF5-87A6-4A41-A7D4-CF321C127996}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10067925" y="4029076"/>
+          <a:ext cx="990600" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD15F3A-C49B-574F-A904-739C188F1654}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2488293" y="9617075"/>
+          <a:ext cx="7287532" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 折線 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF82ACA-E9ED-E24E-9BE0-D8150F774025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11699875" y="2759075"/>
+          <a:ext cx="2263775" cy="1060450"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>削除フラグ＝</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>のレコード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 折線 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B62CC747-580B-0644-8B54-34951C01195F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10642600" y="8420100"/>
+          <a:ext cx="2263775" cy="1054100"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>削除フラグ＝</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>のレコードが表示されている</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2649,146 +3092,144 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00E766C-EA4C-E14A-AA5A-CA0A9C83E992}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8:P8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" customWidth="1"/>
-    <col min="8" max="16" width="3.6640625" style="1"/>
-    <col min="17" max="17" width="7.5546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="5.44140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.33203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.33203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.44140625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="3.6640625" style="1"/>
+    <col min="5" max="5" width="32.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16" width="3.7109375" style="1"/>
+    <col min="17" max="17" width="7.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.42578125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="3.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:19" ht="20" customHeight="1">
+      <c r="A1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
       <c r="G1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="46"/>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="54" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="20" customHeight="1">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
       <c r="G2" s="45" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="46"/>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="48"/>
-    </row>
-    <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="65"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="70"/>
+    </row>
+    <row r="3" spans="1:19" ht="20" customHeight="1">
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="45" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="46"/>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="54" t="s">
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="49">
-        <v>45700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="68"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="71">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="20" customHeight="1">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="45" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="46"/>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="50"/>
-    </row>
-    <row r="5" spans="1:19" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="72" t="s">
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="72"/>
+    </row>
+    <row r="5" spans="1:19" s="7" customFormat="1" ht="48" customHeight="1">
+      <c r="A5" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="73"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
@@ -2798,23 +3239,23 @@
       <c r="E5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="72" t="s">
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="73"/>
-      <c r="O5" s="74" t="s">
+      <c r="N5" s="64"/>
+      <c r="O5" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="74"/>
+      <c r="P5" s="65"/>
       <c r="Q5" s="10" t="s">
         <v>18</v>
       </c>
@@ -2825,40 +3266,40 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="7" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="60">
+    <row r="6" spans="1:19" s="7" customFormat="1" ht="69" customHeight="1">
+      <c r="A6" s="50">
         <f>ROW(A6)-5</f>
         <v>1</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="47" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="69" t="s">
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="70"/>
-      <c r="O6" s="71" t="s">
+      <c r="N6" s="61"/>
+      <c r="O6" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="71"/>
+      <c r="P6" s="62"/>
       <c r="Q6" s="13" t="s">
         <v>27</v>
       </c>
@@ -2869,33 +3310,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="7" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="61"/>
+    <row r="7" spans="1:19" s="7" customFormat="1" ht="93.75" customHeight="1">
+      <c r="A7" s="51"/>
       <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="51" t="s">
+      <c r="E7" s="48"/>
+      <c r="F7" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="69" t="s">
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="70"/>
-      <c r="O7" s="71" t="s">
+      <c r="N7" s="61"/>
+      <c r="O7" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="71"/>
+      <c r="P7" s="62"/>
       <c r="Q7" s="12" t="s">
         <v>27</v>
       </c>
@@ -2906,33 +3347,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="7" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="62"/>
+    <row r="8" spans="1:19" s="7" customFormat="1" ht="143.25" customHeight="1">
+      <c r="A8" s="52"/>
       <c r="B8" s="8">
         <v>3</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="51" t="s">
+      <c r="E8" s="49"/>
+      <c r="F8" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="69" t="s">
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="70"/>
-      <c r="O8" s="71" t="s">
+      <c r="N8" s="61"/>
+      <c r="O8" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="71"/>
+      <c r="P8" s="62"/>
       <c r="Q8" s="12" t="s">
         <v>23</v>
       </c>
@@ -2943,96 +3384,117 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" s="7" customFormat="1" ht="16">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:19" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" s="7" customFormat="1" ht="16">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="8"/>
     </row>
-    <row r="11" spans="1:19" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" s="7" customFormat="1" ht="16">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="8"/>
     </row>
-    <row r="12" spans="1:19" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" s="7" customFormat="1" ht="16">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="8"/>
     </row>
-    <row r="13" spans="1:19" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:19" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:19" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:19" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:19" s="7" customFormat="1" ht="20" customHeight="1"/>
+    <row r="14" spans="1:19" s="7" customFormat="1" ht="20" customHeight="1"/>
+    <row r="15" spans="1:19" s="7" customFormat="1" ht="20" customHeight="1"/>
+    <row r="16" spans="1:19" s="7" customFormat="1" ht="20" customHeight="1"/>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="P1:R2"/>
+    <mergeCell ref="P3:R4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="E6:E8"/>
@@ -3049,27 +3511,6 @@
     <mergeCell ref="F5:L5"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="M6:N6"/>
-    <mergeCell ref="P1:R2"/>
-    <mergeCell ref="P3:R4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3079,207 +3520,225 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A998546-974D-3744-9E49-E8CBED3EA6E4}">
-  <dimension ref="A1:AW176"/>
+  <dimension ref="A1:AL136"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="35" width="3.7109375" style="1"/>
+    <col min="36" max="37" width="3.7109375" style="92"/>
+    <col min="38" max="16384" width="3.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:38" ht="20" customHeight="1">
+      <c r="A1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="82" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="56" t="s">
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="54" t="s">
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="83" t="str">
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="79" t="str">
         <f>試験項目!S1</f>
-        <v>佐藤</v>
-      </c>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-    </row>
-    <row r="2" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="82" t="s">
+        <v>amoibe</v>
+      </c>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+    </row>
+    <row r="2" spans="1:38" ht="20" customHeight="1">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="56" t="s">
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83"/>
-    </row>
-    <row r="3" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="82" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="79"/>
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="79"/>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="79"/>
+      <c r="AL2" s="79"/>
+    </row>
+    <row r="3" spans="1:38" ht="20" customHeight="1">
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="83" t="str">
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="79" t="str">
         <f>試験項目!I3</f>
         <v>在庫センター情報</v>
       </c>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="54" t="s">
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="84">
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="80">
         <f>試験項目!S3</f>
-        <v>45700</v>
-      </c>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-    </row>
-    <row r="4" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="82" t="s">
+        <v>45658</v>
+      </c>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="81"/>
+      <c r="AL3" s="81"/>
+    </row>
+    <row r="4" spans="1:38" ht="20" customHeight="1">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="83" t="str">
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="79" t="str">
         <f>試験項目!I4</f>
         <v>IT01F004</v>
       </c>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="85"/>
-      <c r="AG4" s="85"/>
-      <c r="AH4" s="85"/>
-    </row>
-    <row r="5" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="77" t="s">
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="67"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="81"/>
+      <c r="AI4" s="81"/>
+      <c r="AJ4" s="81"/>
+      <c r="AK4" s="81"/>
+      <c r="AL4" s="81"/>
+    </row>
+    <row r="5" spans="1:38" ht="20" customHeight="1">
+      <c r="A5" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78" t="s">
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:38" ht="20" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -3315,22 +3774,11 @@
       <c r="AG6" s="16"/>
       <c r="AH6" s="16"/>
       <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="16"/>
-      <c r="AQ6" s="16"/>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="16"/>
-      <c r="AT6" s="16"/>
-      <c r="AU6" s="16"/>
-      <c r="AV6" s="16"/>
-      <c r="AW6" s="18"/>
-    </row>
-    <row r="7" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ6" s="93"/>
+      <c r="AK6" s="93"/>
+      <c r="AL6" s="18"/>
+    </row>
+    <row r="7" spans="1:38" ht="20" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -3366,22 +3814,11 @@
       <c r="AG7" s="20"/>
       <c r="AH7" s="20"/>
       <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="20"/>
-      <c r="AR7" s="20"/>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="20"/>
-      <c r="AU7" s="20"/>
-      <c r="AV7" s="20"/>
-      <c r="AW7" s="22"/>
-    </row>
-    <row r="8" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ7" s="94"/>
+      <c r="AK7" s="94"/>
+      <c r="AL7" s="22"/>
+    </row>
+    <row r="8" spans="1:38" ht="20" customHeight="1">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -3417,22 +3854,11 @@
       <c r="AG8" s="20"/>
       <c r="AH8" s="20"/>
       <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="20"/>
-      <c r="AP8" s="20"/>
-      <c r="AQ8" s="20"/>
-      <c r="AR8" s="20"/>
-      <c r="AS8" s="20"/>
-      <c r="AT8" s="20"/>
-      <c r="AU8" s="20"/>
-      <c r="AV8" s="20"/>
-      <c r="AW8" s="22"/>
-    </row>
-    <row r="9" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ8" s="94"/>
+      <c r="AK8" s="94"/>
+      <c r="AL8" s="22"/>
+    </row>
+    <row r="9" spans="1:38" ht="20" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -3468,22 +3894,11 @@
       <c r="AG9" s="20"/>
       <c r="AH9" s="20"/>
       <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20"/>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="22"/>
-    </row>
-    <row r="10" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ9" s="94"/>
+      <c r="AK9" s="94"/>
+      <c r="AL9" s="22"/>
+    </row>
+    <row r="10" spans="1:38" ht="20" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -3519,22 +3934,11 @@
       <c r="AG10" s="20"/>
       <c r="AH10" s="20"/>
       <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="20"/>
-      <c r="AR10" s="20"/>
-      <c r="AS10" s="20"/>
-      <c r="AT10" s="20"/>
-      <c r="AU10" s="20"/>
-      <c r="AV10" s="20"/>
-      <c r="AW10" s="22"/>
-    </row>
-    <row r="11" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ10" s="94"/>
+      <c r="AK10" s="94"/>
+      <c r="AL10" s="22"/>
+    </row>
+    <row r="11" spans="1:38" ht="20" customHeight="1">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -3570,22 +3974,11 @@
       <c r="AG11" s="20"/>
       <c r="AH11" s="20"/>
       <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="20"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="20"/>
-      <c r="AN11" s="20"/>
-      <c r="AO11" s="20"/>
-      <c r="AP11" s="20"/>
-      <c r="AQ11" s="20"/>
-      <c r="AR11" s="20"/>
-      <c r="AS11" s="20"/>
-      <c r="AT11" s="20"/>
-      <c r="AU11" s="20"/>
-      <c r="AV11" s="20"/>
-      <c r="AW11" s="22"/>
-    </row>
-    <row r="12" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ11" s="94"/>
+      <c r="AK11" s="94"/>
+      <c r="AL11" s="22"/>
+    </row>
+    <row r="12" spans="1:38" ht="20" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -3621,22 +4014,11 @@
       <c r="AG12" s="20"/>
       <c r="AH12" s="20"/>
       <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="20"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="20"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="20"/>
-      <c r="AR12" s="20"/>
-      <c r="AS12" s="20"/>
-      <c r="AT12" s="20"/>
-      <c r="AU12" s="20"/>
-      <c r="AV12" s="20"/>
-      <c r="AW12" s="22"/>
-    </row>
-    <row r="13" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ12" s="94"/>
+      <c r="AK12" s="94"/>
+      <c r="AL12" s="22"/>
+    </row>
+    <row r="13" spans="1:38" ht="20" customHeight="1">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -3672,22 +4054,11 @@
       <c r="AG13" s="20"/>
       <c r="AH13" s="20"/>
       <c r="AI13" s="20"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="20"/>
-      <c r="AN13" s="20"/>
-      <c r="AO13" s="20"/>
-      <c r="AP13" s="20"/>
-      <c r="AQ13" s="20"/>
-      <c r="AR13" s="20"/>
-      <c r="AS13" s="20"/>
-      <c r="AT13" s="20"/>
-      <c r="AU13" s="20"/>
-      <c r="AV13" s="20"/>
-      <c r="AW13" s="22"/>
-    </row>
-    <row r="14" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ13" s="94"/>
+      <c r="AK13" s="94"/>
+      <c r="AL13" s="22"/>
+    </row>
+    <row r="14" spans="1:38" ht="20" customHeight="1">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -3723,22 +4094,11 @@
       <c r="AG14" s="20"/>
       <c r="AH14" s="20"/>
       <c r="AI14" s="20"/>
-      <c r="AJ14" s="20"/>
-      <c r="AK14" s="20"/>
-      <c r="AL14" s="20"/>
-      <c r="AM14" s="20"/>
-      <c r="AN14" s="20"/>
-      <c r="AO14" s="20"/>
-      <c r="AP14" s="20"/>
-      <c r="AQ14" s="20"/>
-      <c r="AR14" s="20"/>
-      <c r="AS14" s="20"/>
-      <c r="AT14" s="20"/>
-      <c r="AU14" s="20"/>
-      <c r="AV14" s="20"/>
-      <c r="AW14" s="22"/>
-    </row>
-    <row r="15" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ14" s="94"/>
+      <c r="AK14" s="94"/>
+      <c r="AL14" s="22"/>
+    </row>
+    <row r="15" spans="1:38" ht="20" customHeight="1">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -3774,22 +4134,11 @@
       <c r="AG15" s="20"/>
       <c r="AH15" s="20"/>
       <c r="AI15" s="20"/>
-      <c r="AJ15" s="20"/>
-      <c r="AK15" s="20"/>
-      <c r="AL15" s="20"/>
-      <c r="AM15" s="20"/>
-      <c r="AN15" s="20"/>
-      <c r="AO15" s="20"/>
-      <c r="AP15" s="20"/>
-      <c r="AQ15" s="20"/>
-      <c r="AR15" s="20"/>
-      <c r="AS15" s="20"/>
-      <c r="AT15" s="20"/>
-      <c r="AU15" s="20"/>
-      <c r="AV15" s="20"/>
-      <c r="AW15" s="22"/>
-    </row>
-    <row r="16" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ15" s="94"/>
+      <c r="AK15" s="94"/>
+      <c r="AL15" s="22"/>
+    </row>
+    <row r="16" spans="1:38" ht="20" customHeight="1">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -3825,22 +4174,11 @@
       <c r="AG16" s="20"/>
       <c r="AH16" s="20"/>
       <c r="AI16" s="20"/>
-      <c r="AJ16" s="20"/>
-      <c r="AK16" s="20"/>
-      <c r="AL16" s="20"/>
-      <c r="AM16" s="20"/>
-      <c r="AN16" s="20"/>
-      <c r="AO16" s="20"/>
-      <c r="AP16" s="20"/>
-      <c r="AQ16" s="20"/>
-      <c r="AR16" s="20"/>
-      <c r="AS16" s="20"/>
-      <c r="AT16" s="20"/>
-      <c r="AU16" s="20"/>
-      <c r="AV16" s="20"/>
-      <c r="AW16" s="22"/>
-    </row>
-    <row r="17" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ16" s="94"/>
+      <c r="AK16" s="94"/>
+      <c r="AL16" s="22"/>
+    </row>
+    <row r="17" spans="1:38" ht="20" customHeight="1">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -3876,22 +4214,11 @@
       <c r="AG17" s="20"/>
       <c r="AH17" s="20"/>
       <c r="AI17" s="20"/>
-      <c r="AJ17" s="20"/>
-      <c r="AK17" s="20"/>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="20"/>
-      <c r="AN17" s="20"/>
-      <c r="AO17" s="20"/>
-      <c r="AP17" s="20"/>
-      <c r="AQ17" s="20"/>
-      <c r="AR17" s="20"/>
-      <c r="AS17" s="20"/>
-      <c r="AT17" s="20"/>
-      <c r="AU17" s="20"/>
-      <c r="AV17" s="20"/>
-      <c r="AW17" s="22"/>
-    </row>
-    <row r="18" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ17" s="94"/>
+      <c r="AK17" s="94"/>
+      <c r="AL17" s="22"/>
+    </row>
+    <row r="18" spans="1:38" ht="20" customHeight="1">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -3927,22 +4254,11 @@
       <c r="AG18" s="20"/>
       <c r="AH18" s="20"/>
       <c r="AI18" s="20"/>
-      <c r="AJ18" s="20"/>
-      <c r="AK18" s="20"/>
-      <c r="AL18" s="20"/>
-      <c r="AM18" s="20"/>
-      <c r="AN18" s="20"/>
-      <c r="AO18" s="20"/>
-      <c r="AP18" s="20"/>
-      <c r="AQ18" s="20"/>
-      <c r="AR18" s="20"/>
-      <c r="AS18" s="20"/>
-      <c r="AT18" s="20"/>
-      <c r="AU18" s="20"/>
-      <c r="AV18" s="20"/>
-      <c r="AW18" s="22"/>
-    </row>
-    <row r="19" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ18" s="94"/>
+      <c r="AK18" s="94"/>
+      <c r="AL18" s="22"/>
+    </row>
+    <row r="19" spans="1:38" ht="20" customHeight="1">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -3978,22 +4294,11 @@
       <c r="AG19" s="20"/>
       <c r="AH19" s="20"/>
       <c r="AI19" s="20"/>
-      <c r="AJ19" s="20"/>
-      <c r="AK19" s="20"/>
-      <c r="AL19" s="20"/>
-      <c r="AM19" s="20"/>
-      <c r="AN19" s="20"/>
-      <c r="AO19" s="20"/>
-      <c r="AP19" s="20"/>
-      <c r="AQ19" s="20"/>
-      <c r="AR19" s="20"/>
-      <c r="AS19" s="20"/>
-      <c r="AT19" s="20"/>
-      <c r="AU19" s="20"/>
-      <c r="AV19" s="20"/>
-      <c r="AW19" s="22"/>
-    </row>
-    <row r="20" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ19" s="94"/>
+      <c r="AK19" s="94"/>
+      <c r="AL19" s="22"/>
+    </row>
+    <row r="20" spans="1:38" ht="20" customHeight="1">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -4029,22 +4334,11 @@
       <c r="AG20" s="20"/>
       <c r="AH20" s="20"/>
       <c r="AI20" s="20"/>
-      <c r="AJ20" s="20"/>
-      <c r="AK20" s="20"/>
-      <c r="AL20" s="20"/>
-      <c r="AM20" s="20"/>
-      <c r="AN20" s="20"/>
-      <c r="AO20" s="20"/>
-      <c r="AP20" s="20"/>
-      <c r="AQ20" s="20"/>
-      <c r="AR20" s="20"/>
-      <c r="AS20" s="20"/>
-      <c r="AT20" s="20"/>
-      <c r="AU20" s="20"/>
-      <c r="AV20" s="20"/>
-      <c r="AW20" s="22"/>
-    </row>
-    <row r="21" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ20" s="94"/>
+      <c r="AK20" s="94"/>
+      <c r="AL20" s="22"/>
+    </row>
+    <row r="21" spans="1:38" ht="20" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -4080,22 +4374,11 @@
       <c r="AG21" s="20"/>
       <c r="AH21" s="20"/>
       <c r="AI21" s="20"/>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="20"/>
-      <c r="AL21" s="20"/>
-      <c r="AM21" s="20"/>
-      <c r="AN21" s="20"/>
-      <c r="AO21" s="20"/>
-      <c r="AP21" s="20"/>
-      <c r="AQ21" s="20"/>
-      <c r="AR21" s="20"/>
-      <c r="AS21" s="20"/>
-      <c r="AT21" s="20"/>
-      <c r="AU21" s="20"/>
-      <c r="AV21" s="20"/>
-      <c r="AW21" s="22"/>
-    </row>
-    <row r="22" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ21" s="94"/>
+      <c r="AK21" s="94"/>
+      <c r="AL21" s="22"/>
+    </row>
+    <row r="22" spans="1:38" ht="20" customHeight="1">
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -4131,22 +4414,11 @@
       <c r="AG22" s="20"/>
       <c r="AH22" s="20"/>
       <c r="AI22" s="20"/>
-      <c r="AJ22" s="20"/>
-      <c r="AK22" s="20"/>
-      <c r="AL22" s="20"/>
-      <c r="AM22" s="20"/>
-      <c r="AN22" s="20"/>
-      <c r="AO22" s="20"/>
-      <c r="AP22" s="20"/>
-      <c r="AQ22" s="20"/>
-      <c r="AR22" s="20"/>
-      <c r="AS22" s="20"/>
-      <c r="AT22" s="20"/>
-      <c r="AU22" s="20"/>
-      <c r="AV22" s="20"/>
-      <c r="AW22" s="22"/>
-    </row>
-    <row r="23" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ22" s="94"/>
+      <c r="AK22" s="94"/>
+      <c r="AL22" s="22"/>
+    </row>
+    <row r="23" spans="1:38" ht="20" customHeight="1">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -4182,22 +4454,11 @@
       <c r="AG23" s="20"/>
       <c r="AH23" s="20"/>
       <c r="AI23" s="20"/>
-      <c r="AJ23" s="20"/>
-      <c r="AK23" s="20"/>
-      <c r="AL23" s="20"/>
-      <c r="AM23" s="20"/>
-      <c r="AN23" s="20"/>
-      <c r="AO23" s="20"/>
-      <c r="AP23" s="20"/>
-      <c r="AQ23" s="20"/>
-      <c r="AR23" s="20"/>
-      <c r="AS23" s="20"/>
-      <c r="AT23" s="20"/>
-      <c r="AU23" s="20"/>
-      <c r="AV23" s="20"/>
-      <c r="AW23" s="22"/>
-    </row>
-    <row r="24" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ23" s="94"/>
+      <c r="AK23" s="94"/>
+      <c r="AL23" s="22"/>
+    </row>
+    <row r="24" spans="1:38" ht="20" customHeight="1">
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -4233,22 +4494,11 @@
       <c r="AG24" s="20"/>
       <c r="AH24" s="20"/>
       <c r="AI24" s="20"/>
-      <c r="AJ24" s="20"/>
-      <c r="AK24" s="20"/>
-      <c r="AL24" s="20"/>
-      <c r="AM24" s="20"/>
-      <c r="AN24" s="20"/>
-      <c r="AO24" s="20"/>
-      <c r="AP24" s="20"/>
-      <c r="AQ24" s="20"/>
-      <c r="AR24" s="20"/>
-      <c r="AS24" s="20"/>
-      <c r="AT24" s="20"/>
-      <c r="AU24" s="20"/>
-      <c r="AV24" s="20"/>
-      <c r="AW24" s="22"/>
-    </row>
-    <row r="25" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ24" s="94"/>
+      <c r="AK24" s="94"/>
+      <c r="AL24" s="22"/>
+    </row>
+    <row r="25" spans="1:38" ht="20" customHeight="1">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -4284,22 +4534,11 @@
       <c r="AG25" s="20"/>
       <c r="AH25" s="20"/>
       <c r="AI25" s="20"/>
-      <c r="AJ25" s="20"/>
-      <c r="AK25" s="20"/>
-      <c r="AL25" s="20"/>
-      <c r="AM25" s="20"/>
-      <c r="AN25" s="20"/>
-      <c r="AO25" s="20"/>
-      <c r="AP25" s="20"/>
-      <c r="AQ25" s="20"/>
-      <c r="AR25" s="20"/>
-      <c r="AS25" s="20"/>
-      <c r="AT25" s="20"/>
-      <c r="AU25" s="20"/>
-      <c r="AV25" s="20"/>
-      <c r="AW25" s="22"/>
-    </row>
-    <row r="26" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ25" s="94"/>
+      <c r="AK25" s="94"/>
+      <c r="AL25" s="22"/>
+    </row>
+    <row r="26" spans="1:38" ht="20" customHeight="1">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -4335,22 +4574,11 @@
       <c r="AG26" s="20"/>
       <c r="AH26" s="20"/>
       <c r="AI26" s="20"/>
-      <c r="AJ26" s="20"/>
-      <c r="AK26" s="20"/>
-      <c r="AL26" s="20"/>
-      <c r="AM26" s="20"/>
-      <c r="AN26" s="20"/>
-      <c r="AO26" s="20"/>
-      <c r="AP26" s="20"/>
-      <c r="AQ26" s="20"/>
-      <c r="AR26" s="20"/>
-      <c r="AS26" s="20"/>
-      <c r="AT26" s="20"/>
-      <c r="AU26" s="20"/>
-      <c r="AV26" s="20"/>
-      <c r="AW26" s="22"/>
-    </row>
-    <row r="27" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ26" s="94"/>
+      <c r="AK26" s="94"/>
+      <c r="AL26" s="22"/>
+    </row>
+    <row r="27" spans="1:38" ht="20" customHeight="1">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -4386,22 +4614,11 @@
       <c r="AG27" s="20"/>
       <c r="AH27" s="20"/>
       <c r="AI27" s="20"/>
-      <c r="AJ27" s="20"/>
-      <c r="AK27" s="20"/>
-      <c r="AL27" s="20"/>
-      <c r="AM27" s="20"/>
-      <c r="AN27" s="20"/>
-      <c r="AO27" s="20"/>
-      <c r="AP27" s="20"/>
-      <c r="AQ27" s="20"/>
-      <c r="AR27" s="20"/>
-      <c r="AS27" s="20"/>
-      <c r="AT27" s="20"/>
-      <c r="AU27" s="20"/>
-      <c r="AV27" s="20"/>
-      <c r="AW27" s="22"/>
-    </row>
-    <row r="28" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ27" s="94"/>
+      <c r="AK27" s="94"/>
+      <c r="AL27" s="22"/>
+    </row>
+    <row r="28" spans="1:38" ht="20" customHeight="1">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -4437,22 +4654,11 @@
       <c r="AG28" s="20"/>
       <c r="AH28" s="20"/>
       <c r="AI28" s="20"/>
-      <c r="AJ28" s="20"/>
-      <c r="AK28" s="20"/>
-      <c r="AL28" s="20"/>
-      <c r="AM28" s="20"/>
-      <c r="AN28" s="20"/>
-      <c r="AO28" s="20"/>
-      <c r="AP28" s="20"/>
-      <c r="AQ28" s="20"/>
-      <c r="AR28" s="20"/>
-      <c r="AS28" s="20"/>
-      <c r="AT28" s="20"/>
-      <c r="AU28" s="20"/>
-      <c r="AV28" s="20"/>
-      <c r="AW28" s="22"/>
-    </row>
-    <row r="29" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ28" s="94"/>
+      <c r="AK28" s="94"/>
+      <c r="AL28" s="22"/>
+    </row>
+    <row r="29" spans="1:38" ht="20" customHeight="1">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -4488,22 +4694,11 @@
       <c r="AG29" s="20"/>
       <c r="AH29" s="20"/>
       <c r="AI29" s="20"/>
-      <c r="AJ29" s="20"/>
-      <c r="AK29" s="20"/>
-      <c r="AL29" s="20"/>
-      <c r="AM29" s="20"/>
-      <c r="AN29" s="20"/>
-      <c r="AO29" s="20"/>
-      <c r="AP29" s="20"/>
-      <c r="AQ29" s="20"/>
-      <c r="AR29" s="20"/>
-      <c r="AS29" s="20"/>
-      <c r="AT29" s="20"/>
-      <c r="AU29" s="20"/>
-      <c r="AV29" s="20"/>
-      <c r="AW29" s="22"/>
-    </row>
-    <row r="30" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ29" s="94"/>
+      <c r="AK29" s="94"/>
+      <c r="AL29" s="22"/>
+    </row>
+    <row r="30" spans="1:38" ht="20" customHeight="1">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -4539,22 +4734,11 @@
       <c r="AG30" s="20"/>
       <c r="AH30" s="20"/>
       <c r="AI30" s="20"/>
-      <c r="AJ30" s="20"/>
-      <c r="AK30" s="20"/>
-      <c r="AL30" s="20"/>
-      <c r="AM30" s="20"/>
-      <c r="AN30" s="20"/>
-      <c r="AO30" s="20"/>
-      <c r="AP30" s="20"/>
-      <c r="AQ30" s="20"/>
-      <c r="AR30" s="20"/>
-      <c r="AS30" s="20"/>
-      <c r="AT30" s="20"/>
-      <c r="AU30" s="20"/>
-      <c r="AV30" s="20"/>
-      <c r="AW30" s="22"/>
-    </row>
-    <row r="31" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ30" s="94"/>
+      <c r="AK30" s="94"/>
+      <c r="AL30" s="22"/>
+    </row>
+    <row r="31" spans="1:38" ht="20" customHeight="1">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -4590,22 +4774,11 @@
       <c r="AG31" s="20"/>
       <c r="AH31" s="20"/>
       <c r="AI31" s="20"/>
-      <c r="AJ31" s="20"/>
-      <c r="AK31" s="20"/>
-      <c r="AL31" s="20"/>
-      <c r="AM31" s="20"/>
-      <c r="AN31" s="20"/>
-      <c r="AO31" s="20"/>
-      <c r="AP31" s="20"/>
-      <c r="AQ31" s="20"/>
-      <c r="AR31" s="20"/>
-      <c r="AS31" s="20"/>
-      <c r="AT31" s="20"/>
-      <c r="AU31" s="20"/>
-      <c r="AV31" s="20"/>
-      <c r="AW31" s="22"/>
-    </row>
-    <row r="32" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ31" s="94"/>
+      <c r="AK31" s="94"/>
+      <c r="AL31" s="22"/>
+    </row>
+    <row r="32" spans="1:38" ht="20" customHeight="1">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -4641,22 +4814,11 @@
       <c r="AG32" s="20"/>
       <c r="AH32" s="20"/>
       <c r="AI32" s="20"/>
-      <c r="AJ32" s="20"/>
-      <c r="AK32" s="20"/>
-      <c r="AL32" s="20"/>
-      <c r="AM32" s="20"/>
-      <c r="AN32" s="20"/>
-      <c r="AO32" s="20"/>
-      <c r="AP32" s="20"/>
-      <c r="AQ32" s="20"/>
-      <c r="AR32" s="20"/>
-      <c r="AS32" s="20"/>
-      <c r="AT32" s="20"/>
-      <c r="AU32" s="20"/>
-      <c r="AV32" s="20"/>
-      <c r="AW32" s="22"/>
-    </row>
-    <row r="33" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ32" s="94"/>
+      <c r="AK32" s="94"/>
+      <c r="AL32" s="22"/>
+    </row>
+    <row r="33" spans="1:38" ht="20" customHeight="1">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -4692,22 +4854,11 @@
       <c r="AG33" s="20"/>
       <c r="AH33" s="20"/>
       <c r="AI33" s="20"/>
-      <c r="AJ33" s="20"/>
-      <c r="AK33" s="20"/>
-      <c r="AL33" s="20"/>
-      <c r="AM33" s="20"/>
-      <c r="AN33" s="20"/>
-      <c r="AO33" s="20"/>
-      <c r="AP33" s="20"/>
-      <c r="AQ33" s="20"/>
-      <c r="AR33" s="20"/>
-      <c r="AS33" s="20"/>
-      <c r="AT33" s="20"/>
-      <c r="AU33" s="20"/>
-      <c r="AV33" s="20"/>
-      <c r="AW33" s="22"/>
-    </row>
-    <row r="34" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ33" s="94"/>
+      <c r="AK33" s="94"/>
+      <c r="AL33" s="22"/>
+    </row>
+    <row r="34" spans="1:38" ht="20" customHeight="1">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -4743,22 +4894,11 @@
       <c r="AG34" s="20"/>
       <c r="AH34" s="20"/>
       <c r="AI34" s="20"/>
-      <c r="AJ34" s="20"/>
-      <c r="AK34" s="20"/>
-      <c r="AL34" s="20"/>
-      <c r="AM34" s="20"/>
-      <c r="AN34" s="20"/>
-      <c r="AO34" s="20"/>
-      <c r="AP34" s="20"/>
-      <c r="AQ34" s="20"/>
-      <c r="AR34" s="20"/>
-      <c r="AS34" s="20"/>
-      <c r="AT34" s="20"/>
-      <c r="AU34" s="20"/>
-      <c r="AV34" s="20"/>
-      <c r="AW34" s="22"/>
-    </row>
-    <row r="35" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ34" s="94"/>
+      <c r="AK34" s="94"/>
+      <c r="AL34" s="22"/>
+    </row>
+    <row r="35" spans="1:38" ht="20" customHeight="1">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -4794,22 +4934,11 @@
       <c r="AG35" s="20"/>
       <c r="AH35" s="20"/>
       <c r="AI35" s="20"/>
-      <c r="AJ35" s="20"/>
-      <c r="AK35" s="20"/>
-      <c r="AL35" s="20"/>
-      <c r="AM35" s="20"/>
-      <c r="AN35" s="20"/>
-      <c r="AO35" s="20"/>
-      <c r="AP35" s="20"/>
-      <c r="AQ35" s="20"/>
-      <c r="AR35" s="20"/>
-      <c r="AS35" s="20"/>
-      <c r="AT35" s="20"/>
-      <c r="AU35" s="20"/>
-      <c r="AV35" s="20"/>
-      <c r="AW35" s="22"/>
-    </row>
-    <row r="36" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ35" s="94"/>
+      <c r="AK35" s="94"/>
+      <c r="AL35" s="22"/>
+    </row>
+    <row r="36" spans="1:38" ht="20" customHeight="1">
       <c r="A36" s="19"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -4845,22 +4974,11 @@
       <c r="AG36" s="20"/>
       <c r="AH36" s="20"/>
       <c r="AI36" s="20"/>
-      <c r="AJ36" s="20"/>
-      <c r="AK36" s="20"/>
-      <c r="AL36" s="20"/>
-      <c r="AM36" s="20"/>
-      <c r="AN36" s="20"/>
-      <c r="AO36" s="20"/>
-      <c r="AP36" s="20"/>
-      <c r="AQ36" s="20"/>
-      <c r="AR36" s="20"/>
-      <c r="AS36" s="20"/>
-      <c r="AT36" s="20"/>
-      <c r="AU36" s="20"/>
-      <c r="AV36" s="20"/>
-      <c r="AW36" s="22"/>
-    </row>
-    <row r="37" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ36" s="94"/>
+      <c r="AK36" s="94"/>
+      <c r="AL36" s="22"/>
+    </row>
+    <row r="37" spans="1:38" ht="20" customHeight="1">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -4896,22 +5014,11 @@
       <c r="AG37" s="20"/>
       <c r="AH37" s="20"/>
       <c r="AI37" s="20"/>
-      <c r="AJ37" s="20"/>
-      <c r="AK37" s="20"/>
-      <c r="AL37" s="20"/>
-      <c r="AM37" s="20"/>
-      <c r="AN37" s="20"/>
-      <c r="AO37" s="20"/>
-      <c r="AP37" s="20"/>
-      <c r="AQ37" s="20"/>
-      <c r="AR37" s="20"/>
-      <c r="AS37" s="20"/>
-      <c r="AT37" s="20"/>
-      <c r="AU37" s="20"/>
-      <c r="AV37" s="20"/>
-      <c r="AW37" s="22"/>
-    </row>
-    <row r="38" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ37" s="94"/>
+      <c r="AK37" s="94"/>
+      <c r="AL37" s="22"/>
+    </row>
+    <row r="38" spans="1:38" ht="20" customHeight="1">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -4947,22 +5054,11 @@
       <c r="AG38" s="20"/>
       <c r="AH38" s="20"/>
       <c r="AI38" s="20"/>
-      <c r="AJ38" s="20"/>
-      <c r="AK38" s="20"/>
-      <c r="AL38" s="20"/>
-      <c r="AM38" s="20"/>
-      <c r="AN38" s="20"/>
-      <c r="AO38" s="20"/>
-      <c r="AP38" s="20"/>
-      <c r="AQ38" s="20"/>
-      <c r="AR38" s="20"/>
-      <c r="AS38" s="20"/>
-      <c r="AT38" s="20"/>
-      <c r="AU38" s="20"/>
-      <c r="AV38" s="20"/>
-      <c r="AW38" s="22"/>
-    </row>
-    <row r="39" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ38" s="94"/>
+      <c r="AK38" s="94"/>
+      <c r="AL38" s="22"/>
+    </row>
+    <row r="39" spans="1:38" ht="20" customHeight="1">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -4998,22 +5094,11 @@
       <c r="AG39" s="20"/>
       <c r="AH39" s="20"/>
       <c r="AI39" s="20"/>
-      <c r="AJ39" s="20"/>
-      <c r="AK39" s="20"/>
-      <c r="AL39" s="20"/>
-      <c r="AM39" s="20"/>
-      <c r="AN39" s="20"/>
-      <c r="AO39" s="20"/>
-      <c r="AP39" s="20"/>
-      <c r="AQ39" s="20"/>
-      <c r="AR39" s="20"/>
-      <c r="AS39" s="20"/>
-      <c r="AT39" s="20"/>
-      <c r="AU39" s="20"/>
-      <c r="AV39" s="20"/>
-      <c r="AW39" s="22"/>
-    </row>
-    <row r="40" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ39" s="94"/>
+      <c r="AK39" s="94"/>
+      <c r="AL39" s="22"/>
+    </row>
+    <row r="40" spans="1:38" ht="20" customHeight="1">
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -5049,22 +5134,11 @@
       <c r="AG40" s="20"/>
       <c r="AH40" s="20"/>
       <c r="AI40" s="20"/>
-      <c r="AJ40" s="20"/>
-      <c r="AK40" s="20"/>
-      <c r="AL40" s="20"/>
-      <c r="AM40" s="20"/>
-      <c r="AN40" s="20"/>
-      <c r="AO40" s="20"/>
-      <c r="AP40" s="20"/>
-      <c r="AQ40" s="20"/>
-      <c r="AR40" s="20"/>
-      <c r="AS40" s="20"/>
-      <c r="AT40" s="20"/>
-      <c r="AU40" s="20"/>
-      <c r="AV40" s="20"/>
-      <c r="AW40" s="22"/>
-    </row>
-    <row r="41" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ40" s="94"/>
+      <c r="AK40" s="94"/>
+      <c r="AL40" s="22"/>
+    </row>
+    <row r="41" spans="1:38" ht="20" customHeight="1">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -5100,22 +5174,11 @@
       <c r="AG41" s="20"/>
       <c r="AH41" s="20"/>
       <c r="AI41" s="20"/>
-      <c r="AJ41" s="20"/>
-      <c r="AK41" s="20"/>
-      <c r="AL41" s="20"/>
-      <c r="AM41" s="20"/>
-      <c r="AN41" s="20"/>
-      <c r="AO41" s="20"/>
-      <c r="AP41" s="20"/>
-      <c r="AQ41" s="20"/>
-      <c r="AR41" s="20"/>
-      <c r="AS41" s="20"/>
-      <c r="AT41" s="20"/>
-      <c r="AU41" s="20"/>
-      <c r="AV41" s="20"/>
-      <c r="AW41" s="22"/>
-    </row>
-    <row r="42" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ41" s="94"/>
+      <c r="AK41" s="94"/>
+      <c r="AL41" s="22"/>
+    </row>
+    <row r="42" spans="1:38" ht="20" customHeight="1">
       <c r="A42" s="19"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -5151,22 +5214,11 @@
       <c r="AG42" s="20"/>
       <c r="AH42" s="20"/>
       <c r="AI42" s="20"/>
-      <c r="AJ42" s="20"/>
-      <c r="AK42" s="20"/>
-      <c r="AL42" s="20"/>
-      <c r="AM42" s="20"/>
-      <c r="AN42" s="20"/>
-      <c r="AO42" s="20"/>
-      <c r="AP42" s="20"/>
-      <c r="AQ42" s="20"/>
-      <c r="AR42" s="20"/>
-      <c r="AS42" s="20"/>
-      <c r="AT42" s="20"/>
-      <c r="AU42" s="20"/>
-      <c r="AV42" s="20"/>
-      <c r="AW42" s="22"/>
-    </row>
-    <row r="43" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ42" s="94"/>
+      <c r="AK42" s="94"/>
+      <c r="AL42" s="22"/>
+    </row>
+    <row r="43" spans="1:38" ht="20" customHeight="1">
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -5202,22 +5254,11 @@
       <c r="AG43" s="20"/>
       <c r="AH43" s="20"/>
       <c r="AI43" s="20"/>
-      <c r="AJ43" s="20"/>
-      <c r="AK43" s="20"/>
-      <c r="AL43" s="20"/>
-      <c r="AM43" s="20"/>
-      <c r="AN43" s="20"/>
-      <c r="AO43" s="20"/>
-      <c r="AP43" s="20"/>
-      <c r="AQ43" s="20"/>
-      <c r="AR43" s="20"/>
-      <c r="AS43" s="20"/>
-      <c r="AT43" s="20"/>
-      <c r="AU43" s="20"/>
-      <c r="AV43" s="20"/>
-      <c r="AW43" s="22"/>
-    </row>
-    <row r="44" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ43" s="94"/>
+      <c r="AK43" s="94"/>
+      <c r="AL43" s="22"/>
+    </row>
+    <row r="44" spans="1:38" ht="20" customHeight="1">
       <c r="A44" s="19"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -5253,22 +5294,11 @@
       <c r="AG44" s="20"/>
       <c r="AH44" s="20"/>
       <c r="AI44" s="20"/>
-      <c r="AJ44" s="20"/>
-      <c r="AK44" s="20"/>
-      <c r="AL44" s="20"/>
-      <c r="AM44" s="20"/>
-      <c r="AN44" s="20"/>
-      <c r="AO44" s="20"/>
-      <c r="AP44" s="20"/>
-      <c r="AQ44" s="20"/>
-      <c r="AR44" s="20"/>
-      <c r="AS44" s="20"/>
-      <c r="AT44" s="20"/>
-      <c r="AU44" s="20"/>
-      <c r="AV44" s="20"/>
-      <c r="AW44" s="22"/>
-    </row>
-    <row r="45" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ44" s="94"/>
+      <c r="AK44" s="94"/>
+      <c r="AL44" s="22"/>
+    </row>
+    <row r="45" spans="1:38" ht="20" customHeight="1">
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -5304,22 +5334,11 @@
       <c r="AG45" s="20"/>
       <c r="AH45" s="20"/>
       <c r="AI45" s="20"/>
-      <c r="AJ45" s="20"/>
-      <c r="AK45" s="20"/>
-      <c r="AL45" s="20"/>
-      <c r="AM45" s="20"/>
-      <c r="AN45" s="20"/>
-      <c r="AO45" s="20"/>
-      <c r="AP45" s="20"/>
-      <c r="AQ45" s="20"/>
-      <c r="AR45" s="20"/>
-      <c r="AS45" s="20"/>
-      <c r="AT45" s="20"/>
-      <c r="AU45" s="20"/>
-      <c r="AV45" s="20"/>
-      <c r="AW45" s="22"/>
-    </row>
-    <row r="46" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ45" s="94"/>
+      <c r="AK45" s="94"/>
+      <c r="AL45" s="22"/>
+    </row>
+    <row r="46" spans="1:38" ht="20" customHeight="1">
       <c r="A46" s="19"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -5355,22 +5374,11 @@
       <c r="AG46" s="20"/>
       <c r="AH46" s="20"/>
       <c r="AI46" s="20"/>
-      <c r="AJ46" s="20"/>
-      <c r="AK46" s="20"/>
-      <c r="AL46" s="20"/>
-      <c r="AM46" s="20"/>
-      <c r="AN46" s="20"/>
-      <c r="AO46" s="20"/>
-      <c r="AP46" s="20"/>
-      <c r="AQ46" s="20"/>
-      <c r="AR46" s="20"/>
-      <c r="AS46" s="20"/>
-      <c r="AT46" s="20"/>
-      <c r="AU46" s="20"/>
-      <c r="AV46" s="20"/>
-      <c r="AW46" s="22"/>
-    </row>
-    <row r="47" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ46" s="94"/>
+      <c r="AK46" s="94"/>
+      <c r="AL46" s="22"/>
+    </row>
+    <row r="47" spans="1:38" ht="20" customHeight="1">
       <c r="A47" s="19"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -5406,22 +5414,11 @@
       <c r="AG47" s="20"/>
       <c r="AH47" s="20"/>
       <c r="AI47" s="20"/>
-      <c r="AJ47" s="20"/>
-      <c r="AK47" s="20"/>
-      <c r="AL47" s="20"/>
-      <c r="AM47" s="20"/>
-      <c r="AN47" s="20"/>
-      <c r="AO47" s="20"/>
-      <c r="AP47" s="20"/>
-      <c r="AQ47" s="20"/>
-      <c r="AR47" s="20"/>
-      <c r="AS47" s="20"/>
-      <c r="AT47" s="20"/>
-      <c r="AU47" s="20"/>
-      <c r="AV47" s="20"/>
-      <c r="AW47" s="22"/>
-    </row>
-    <row r="48" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ47" s="94"/>
+      <c r="AK47" s="94"/>
+      <c r="AL47" s="22"/>
+    </row>
+    <row r="48" spans="1:38" ht="20" customHeight="1">
       <c r="A48" s="19"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -5457,22 +5454,11 @@
       <c r="AG48" s="20"/>
       <c r="AH48" s="20"/>
       <c r="AI48" s="20"/>
-      <c r="AJ48" s="20"/>
-      <c r="AK48" s="20"/>
-      <c r="AL48" s="20"/>
-      <c r="AM48" s="20"/>
-      <c r="AN48" s="20"/>
-      <c r="AO48" s="20"/>
-      <c r="AP48" s="20"/>
-      <c r="AQ48" s="20"/>
-      <c r="AR48" s="20"/>
-      <c r="AS48" s="20"/>
-      <c r="AT48" s="20"/>
-      <c r="AU48" s="20"/>
-      <c r="AV48" s="20"/>
-      <c r="AW48" s="22"/>
-    </row>
-    <row r="49" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ48" s="94"/>
+      <c r="AK48" s="94"/>
+      <c r="AL48" s="22"/>
+    </row>
+    <row r="49" spans="1:38" ht="20" customHeight="1">
       <c r="A49" s="19"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -5508,22 +5494,11 @@
       <c r="AG49" s="20"/>
       <c r="AH49" s="20"/>
       <c r="AI49" s="20"/>
-      <c r="AJ49" s="20"/>
-      <c r="AK49" s="20"/>
-      <c r="AL49" s="20"/>
-      <c r="AM49" s="20"/>
-      <c r="AN49" s="20"/>
-      <c r="AO49" s="20"/>
-      <c r="AP49" s="20"/>
-      <c r="AQ49" s="20"/>
-      <c r="AR49" s="20"/>
-      <c r="AS49" s="20"/>
-      <c r="AT49" s="20"/>
-      <c r="AU49" s="20"/>
-      <c r="AV49" s="20"/>
-      <c r="AW49" s="22"/>
-    </row>
-    <row r="50" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ49" s="94"/>
+      <c r="AK49" s="94"/>
+      <c r="AL49" s="22"/>
+    </row>
+    <row r="50" spans="1:38" ht="20" customHeight="1">
       <c r="A50" s="19"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -5559,22 +5534,11 @@
       <c r="AG50" s="20"/>
       <c r="AH50" s="20"/>
       <c r="AI50" s="20"/>
-      <c r="AJ50" s="20"/>
-      <c r="AK50" s="20"/>
-      <c r="AL50" s="20"/>
-      <c r="AM50" s="20"/>
-      <c r="AN50" s="20"/>
-      <c r="AO50" s="20"/>
-      <c r="AP50" s="20"/>
-      <c r="AQ50" s="20"/>
-      <c r="AR50" s="20"/>
-      <c r="AS50" s="20"/>
-      <c r="AT50" s="20"/>
-      <c r="AU50" s="20"/>
-      <c r="AV50" s="20"/>
-      <c r="AW50" s="22"/>
-    </row>
-    <row r="51" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ50" s="94"/>
+      <c r="AK50" s="94"/>
+      <c r="AL50" s="22"/>
+    </row>
+    <row r="51" spans="1:38" ht="20" customHeight="1">
       <c r="A51" s="19"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -5610,22 +5574,11 @@
       <c r="AG51" s="20"/>
       <c r="AH51" s="20"/>
       <c r="AI51" s="20"/>
-      <c r="AJ51" s="20"/>
-      <c r="AK51" s="20"/>
-      <c r="AL51" s="20"/>
-      <c r="AM51" s="20"/>
-      <c r="AN51" s="20"/>
-      <c r="AO51" s="20"/>
-      <c r="AP51" s="20"/>
-      <c r="AQ51" s="20"/>
-      <c r="AR51" s="20"/>
-      <c r="AS51" s="20"/>
-      <c r="AT51" s="20"/>
-      <c r="AU51" s="20"/>
-      <c r="AV51" s="20"/>
-      <c r="AW51" s="22"/>
-    </row>
-    <row r="52" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ51" s="94"/>
+      <c r="AK51" s="94"/>
+      <c r="AL51" s="22"/>
+    </row>
+    <row r="52" spans="1:38" ht="20" customHeight="1">
       <c r="A52" s="19"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -5661,22 +5614,11 @@
       <c r="AG52" s="20"/>
       <c r="AH52" s="20"/>
       <c r="AI52" s="20"/>
-      <c r="AJ52" s="20"/>
-      <c r="AK52" s="20"/>
-      <c r="AL52" s="20"/>
-      <c r="AM52" s="20"/>
-      <c r="AN52" s="20"/>
-      <c r="AO52" s="20"/>
-      <c r="AP52" s="20"/>
-      <c r="AQ52" s="20"/>
-      <c r="AR52" s="20"/>
-      <c r="AS52" s="20"/>
-      <c r="AT52" s="20"/>
-      <c r="AU52" s="20"/>
-      <c r="AV52" s="20"/>
-      <c r="AW52" s="22"/>
-    </row>
-    <row r="53" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ52" s="94"/>
+      <c r="AK52" s="94"/>
+      <c r="AL52" s="22"/>
+    </row>
+    <row r="53" spans="1:38" ht="20" customHeight="1">
       <c r="A53" s="19"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -5712,22 +5654,11 @@
       <c r="AG53" s="20"/>
       <c r="AH53" s="20"/>
       <c r="AI53" s="20"/>
-      <c r="AJ53" s="20"/>
-      <c r="AK53" s="20"/>
-      <c r="AL53" s="20"/>
-      <c r="AM53" s="20"/>
-      <c r="AN53" s="20"/>
-      <c r="AO53" s="20"/>
-      <c r="AP53" s="20"/>
-      <c r="AQ53" s="20"/>
-      <c r="AR53" s="20"/>
-      <c r="AS53" s="20"/>
-      <c r="AT53" s="20"/>
-      <c r="AU53" s="20"/>
-      <c r="AV53" s="20"/>
-      <c r="AW53" s="22"/>
-    </row>
-    <row r="54" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ53" s="94"/>
+      <c r="AK53" s="94"/>
+      <c r="AL53" s="22"/>
+    </row>
+    <row r="54" spans="1:38" ht="20" customHeight="1">
       <c r="A54" s="19"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -5763,22 +5694,11 @@
       <c r="AG54" s="20"/>
       <c r="AH54" s="20"/>
       <c r="AI54" s="20"/>
-      <c r="AJ54" s="20"/>
-      <c r="AK54" s="20"/>
-      <c r="AL54" s="20"/>
-      <c r="AM54" s="20"/>
-      <c r="AN54" s="20"/>
-      <c r="AO54" s="20"/>
-      <c r="AP54" s="20"/>
-      <c r="AQ54" s="20"/>
-      <c r="AR54" s="20"/>
-      <c r="AS54" s="20"/>
-      <c r="AT54" s="20"/>
-      <c r="AU54" s="20"/>
-      <c r="AV54" s="20"/>
-      <c r="AW54" s="22"/>
-    </row>
-    <row r="55" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ54" s="94"/>
+      <c r="AK54" s="94"/>
+      <c r="AL54" s="22"/>
+    </row>
+    <row r="55" spans="1:38" ht="20" customHeight="1">
       <c r="A55" s="19"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -5814,22 +5734,11 @@
       <c r="AG55" s="20"/>
       <c r="AH55" s="20"/>
       <c r="AI55" s="20"/>
-      <c r="AJ55" s="20"/>
-      <c r="AK55" s="20"/>
-      <c r="AL55" s="20"/>
-      <c r="AM55" s="20"/>
-      <c r="AN55" s="20"/>
-      <c r="AO55" s="20"/>
-      <c r="AP55" s="20"/>
-      <c r="AQ55" s="20"/>
-      <c r="AR55" s="20"/>
-      <c r="AS55" s="20"/>
-      <c r="AT55" s="20"/>
-      <c r="AU55" s="20"/>
-      <c r="AV55" s="20"/>
-      <c r="AW55" s="22"/>
-    </row>
-    <row r="56" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ55" s="94"/>
+      <c r="AK55" s="94"/>
+      <c r="AL55" s="22"/>
+    </row>
+    <row r="56" spans="1:38" ht="20" customHeight="1">
       <c r="A56" s="19"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -5865,22 +5774,11 @@
       <c r="AG56" s="20"/>
       <c r="AH56" s="20"/>
       <c r="AI56" s="20"/>
-      <c r="AJ56" s="20"/>
-      <c r="AK56" s="20"/>
-      <c r="AL56" s="20"/>
-      <c r="AM56" s="20"/>
-      <c r="AN56" s="20"/>
-      <c r="AO56" s="20"/>
-      <c r="AP56" s="20"/>
-      <c r="AQ56" s="20"/>
-      <c r="AR56" s="20"/>
-      <c r="AS56" s="20"/>
-      <c r="AT56" s="20"/>
-      <c r="AU56" s="20"/>
-      <c r="AV56" s="20"/>
-      <c r="AW56" s="22"/>
-    </row>
-    <row r="57" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ56" s="94"/>
+      <c r="AK56" s="94"/>
+      <c r="AL56" s="22"/>
+    </row>
+    <row r="57" spans="1:38" ht="20" customHeight="1">
       <c r="A57" s="19"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -5916,22 +5814,11 @@
       <c r="AG57" s="20"/>
       <c r="AH57" s="20"/>
       <c r="AI57" s="20"/>
-      <c r="AJ57" s="20"/>
-      <c r="AK57" s="20"/>
-      <c r="AL57" s="20"/>
-      <c r="AM57" s="20"/>
-      <c r="AN57" s="20"/>
-      <c r="AO57" s="20"/>
-      <c r="AP57" s="20"/>
-      <c r="AQ57" s="20"/>
-      <c r="AR57" s="20"/>
-      <c r="AS57" s="20"/>
-      <c r="AT57" s="20"/>
-      <c r="AU57" s="20"/>
-      <c r="AV57" s="20"/>
-      <c r="AW57" s="22"/>
-    </row>
-    <row r="58" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ57" s="94"/>
+      <c r="AK57" s="94"/>
+      <c r="AL57" s="22"/>
+    </row>
+    <row r="58" spans="1:38" ht="20" customHeight="1">
       <c r="A58" s="19"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -5967,22 +5854,11 @@
       <c r="AG58" s="20"/>
       <c r="AH58" s="20"/>
       <c r="AI58" s="20"/>
-      <c r="AJ58" s="20"/>
-      <c r="AK58" s="20"/>
-      <c r="AL58" s="20"/>
-      <c r="AM58" s="20"/>
-      <c r="AN58" s="20"/>
-      <c r="AO58" s="20"/>
-      <c r="AP58" s="20"/>
-      <c r="AQ58" s="20"/>
-      <c r="AR58" s="20"/>
-      <c r="AS58" s="20"/>
-      <c r="AT58" s="20"/>
-      <c r="AU58" s="20"/>
-      <c r="AV58" s="20"/>
-      <c r="AW58" s="22"/>
-    </row>
-    <row r="59" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ58" s="94"/>
+      <c r="AK58" s="94"/>
+      <c r="AL58" s="22"/>
+    </row>
+    <row r="59" spans="1:38" ht="20" customHeight="1">
       <c r="A59" s="19"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -6018,22 +5894,11 @@
       <c r="AG59" s="20"/>
       <c r="AH59" s="20"/>
       <c r="AI59" s="20"/>
-      <c r="AJ59" s="20"/>
-      <c r="AK59" s="20"/>
-      <c r="AL59" s="20"/>
-      <c r="AM59" s="20"/>
-      <c r="AN59" s="20"/>
-      <c r="AO59" s="20"/>
-      <c r="AP59" s="20"/>
-      <c r="AQ59" s="20"/>
-      <c r="AR59" s="20"/>
-      <c r="AS59" s="20"/>
-      <c r="AT59" s="20"/>
-      <c r="AU59" s="20"/>
-      <c r="AV59" s="20"/>
-      <c r="AW59" s="22"/>
-    </row>
-    <row r="60" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ59" s="94"/>
+      <c r="AK59" s="94"/>
+      <c r="AL59" s="22"/>
+    </row>
+    <row r="60" spans="1:38" ht="20" customHeight="1">
       <c r="A60" s="19"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
@@ -6069,22 +5934,11 @@
       <c r="AG60" s="20"/>
       <c r="AH60" s="20"/>
       <c r="AI60" s="20"/>
-      <c r="AJ60" s="20"/>
-      <c r="AK60" s="20"/>
-      <c r="AL60" s="20"/>
-      <c r="AM60" s="20"/>
-      <c r="AN60" s="20"/>
-      <c r="AO60" s="20"/>
-      <c r="AP60" s="20"/>
-      <c r="AQ60" s="20"/>
-      <c r="AR60" s="20"/>
-      <c r="AS60" s="20"/>
-      <c r="AT60" s="20"/>
-      <c r="AU60" s="20"/>
-      <c r="AV60" s="20"/>
-      <c r="AW60" s="22"/>
-    </row>
-    <row r="61" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ60" s="94"/>
+      <c r="AK60" s="94"/>
+      <c r="AL60" s="22"/>
+    </row>
+    <row r="61" spans="1:38" ht="20" customHeight="1">
       <c r="A61" s="19"/>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
@@ -6120,22 +5974,11 @@
       <c r="AG61" s="20"/>
       <c r="AH61" s="20"/>
       <c r="AI61" s="20"/>
-      <c r="AJ61" s="20"/>
-      <c r="AK61" s="20"/>
-      <c r="AL61" s="20"/>
-      <c r="AM61" s="20"/>
-      <c r="AN61" s="20"/>
-      <c r="AO61" s="20"/>
-      <c r="AP61" s="20"/>
-      <c r="AQ61" s="20"/>
-      <c r="AR61" s="20"/>
-      <c r="AS61" s="20"/>
-      <c r="AT61" s="20"/>
-      <c r="AU61" s="20"/>
-      <c r="AV61" s="20"/>
-      <c r="AW61" s="22"/>
-    </row>
-    <row r="62" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ61" s="94"/>
+      <c r="AK61" s="94"/>
+      <c r="AL61" s="22"/>
+    </row>
+    <row r="62" spans="1:38" ht="20" customHeight="1">
       <c r="A62" s="19"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
@@ -6171,22 +6014,11 @@
       <c r="AG62" s="20"/>
       <c r="AH62" s="20"/>
       <c r="AI62" s="20"/>
-      <c r="AJ62" s="20"/>
-      <c r="AK62" s="20"/>
-      <c r="AL62" s="20"/>
-      <c r="AM62" s="20"/>
-      <c r="AN62" s="20"/>
-      <c r="AO62" s="20"/>
-      <c r="AP62" s="20"/>
-      <c r="AQ62" s="20"/>
-      <c r="AR62" s="20"/>
-      <c r="AS62" s="20"/>
-      <c r="AT62" s="20"/>
-      <c r="AU62" s="20"/>
-      <c r="AV62" s="20"/>
-      <c r="AW62" s="22"/>
-    </row>
-    <row r="63" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ62" s="94"/>
+      <c r="AK62" s="94"/>
+      <c r="AL62" s="22"/>
+    </row>
+    <row r="63" spans="1:38" ht="20" customHeight="1">
       <c r="A63" s="19"/>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -6222,22 +6054,11 @@
       <c r="AG63" s="20"/>
       <c r="AH63" s="20"/>
       <c r="AI63" s="20"/>
-      <c r="AJ63" s="20"/>
-      <c r="AK63" s="20"/>
-      <c r="AL63" s="20"/>
-      <c r="AM63" s="20"/>
-      <c r="AN63" s="20"/>
-      <c r="AO63" s="20"/>
-      <c r="AP63" s="20"/>
-      <c r="AQ63" s="20"/>
-      <c r="AR63" s="20"/>
-      <c r="AS63" s="20"/>
-      <c r="AT63" s="20"/>
-      <c r="AU63" s="20"/>
-      <c r="AV63" s="20"/>
-      <c r="AW63" s="22"/>
-    </row>
-    <row r="64" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ63" s="94"/>
+      <c r="AK63" s="94"/>
+      <c r="AL63" s="22"/>
+    </row>
+    <row r="64" spans="1:38" ht="20" customHeight="1">
       <c r="A64" s="19"/>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
@@ -6273,22 +6094,11 @@
       <c r="AG64" s="20"/>
       <c r="AH64" s="20"/>
       <c r="AI64" s="20"/>
-      <c r="AJ64" s="20"/>
-      <c r="AK64" s="20"/>
-      <c r="AL64" s="20"/>
-      <c r="AM64" s="20"/>
-      <c r="AN64" s="20"/>
-      <c r="AO64" s="20"/>
-      <c r="AP64" s="20"/>
-      <c r="AQ64" s="20"/>
-      <c r="AR64" s="20"/>
-      <c r="AS64" s="20"/>
-      <c r="AT64" s="20"/>
-      <c r="AU64" s="20"/>
-      <c r="AV64" s="20"/>
-      <c r="AW64" s="22"/>
-    </row>
-    <row r="65" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ64" s="94"/>
+      <c r="AK64" s="94"/>
+      <c r="AL64" s="22"/>
+    </row>
+    <row r="65" spans="1:38" ht="20" customHeight="1">
       <c r="A65" s="19"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
@@ -6324,22 +6134,11 @@
       <c r="AG65" s="20"/>
       <c r="AH65" s="20"/>
       <c r="AI65" s="20"/>
-      <c r="AJ65" s="20"/>
-      <c r="AK65" s="20"/>
-      <c r="AL65" s="20"/>
-      <c r="AM65" s="20"/>
-      <c r="AN65" s="20"/>
-      <c r="AO65" s="20"/>
-      <c r="AP65" s="20"/>
-      <c r="AQ65" s="20"/>
-      <c r="AR65" s="20"/>
-      <c r="AS65" s="20"/>
-      <c r="AT65" s="20"/>
-      <c r="AU65" s="20"/>
-      <c r="AV65" s="20"/>
-      <c r="AW65" s="22"/>
-    </row>
-    <row r="66" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ65" s="94"/>
+      <c r="AK65" s="94"/>
+      <c r="AL65" s="22"/>
+    </row>
+    <row r="66" spans="1:38" ht="20" customHeight="1">
       <c r="A66" s="19"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
@@ -6375,22 +6174,11 @@
       <c r="AG66" s="20"/>
       <c r="AH66" s="20"/>
       <c r="AI66" s="20"/>
-      <c r="AJ66" s="20"/>
-      <c r="AK66" s="20"/>
-      <c r="AL66" s="20"/>
-      <c r="AM66" s="20"/>
-      <c r="AN66" s="20"/>
-      <c r="AO66" s="20"/>
-      <c r="AP66" s="20"/>
-      <c r="AQ66" s="20"/>
-      <c r="AR66" s="20"/>
-      <c r="AS66" s="20"/>
-      <c r="AT66" s="20"/>
-      <c r="AU66" s="20"/>
-      <c r="AV66" s="20"/>
-      <c r="AW66" s="22"/>
-    </row>
-    <row r="67" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ66" s="94"/>
+      <c r="AK66" s="94"/>
+      <c r="AL66" s="22"/>
+    </row>
+    <row r="67" spans="1:38" ht="20" customHeight="1">
       <c r="A67" s="19"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
@@ -6426,22 +6214,11 @@
       <c r="AG67" s="20"/>
       <c r="AH67" s="20"/>
       <c r="AI67" s="20"/>
-      <c r="AJ67" s="20"/>
-      <c r="AK67" s="20"/>
-      <c r="AL67" s="20"/>
-      <c r="AM67" s="20"/>
-      <c r="AN67" s="20"/>
-      <c r="AO67" s="20"/>
-      <c r="AP67" s="20"/>
-      <c r="AQ67" s="20"/>
-      <c r="AR67" s="20"/>
-      <c r="AS67" s="20"/>
-      <c r="AT67" s="20"/>
-      <c r="AU67" s="20"/>
-      <c r="AV67" s="20"/>
-      <c r="AW67" s="22"/>
-    </row>
-    <row r="68" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ67" s="94"/>
+      <c r="AK67" s="94"/>
+      <c r="AL67" s="22"/>
+    </row>
+    <row r="68" spans="1:38" ht="20" customHeight="1">
       <c r="A68" s="19"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -6477,22 +6254,11 @@
       <c r="AG68" s="20"/>
       <c r="AH68" s="20"/>
       <c r="AI68" s="20"/>
-      <c r="AJ68" s="20"/>
-      <c r="AK68" s="20"/>
-      <c r="AL68" s="20"/>
-      <c r="AM68" s="20"/>
-      <c r="AN68" s="20"/>
-      <c r="AO68" s="20"/>
-      <c r="AP68" s="20"/>
-      <c r="AQ68" s="20"/>
-      <c r="AR68" s="20"/>
-      <c r="AS68" s="20"/>
-      <c r="AT68" s="20"/>
-      <c r="AU68" s="20"/>
-      <c r="AV68" s="20"/>
-      <c r="AW68" s="22"/>
-    </row>
-    <row r="69" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ68" s="94"/>
+      <c r="AK68" s="94"/>
+      <c r="AL68" s="22"/>
+    </row>
+    <row r="69" spans="1:38" ht="20" customHeight="1">
       <c r="A69" s="19"/>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
@@ -6528,22 +6294,11 @@
       <c r="AG69" s="20"/>
       <c r="AH69" s="20"/>
       <c r="AI69" s="20"/>
-      <c r="AJ69" s="20"/>
-      <c r="AK69" s="20"/>
-      <c r="AL69" s="20"/>
-      <c r="AM69" s="20"/>
-      <c r="AN69" s="20"/>
-      <c r="AO69" s="20"/>
-      <c r="AP69" s="20"/>
-      <c r="AQ69" s="20"/>
-      <c r="AR69" s="20"/>
-      <c r="AS69" s="20"/>
-      <c r="AT69" s="20"/>
-      <c r="AU69" s="20"/>
-      <c r="AV69" s="20"/>
-      <c r="AW69" s="22"/>
-    </row>
-    <row r="70" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ69" s="94"/>
+      <c r="AK69" s="94"/>
+      <c r="AL69" s="22"/>
+    </row>
+    <row r="70" spans="1:38" ht="20" customHeight="1">
       <c r="A70" s="19"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
@@ -6579,22 +6334,11 @@
       <c r="AG70" s="20"/>
       <c r="AH70" s="20"/>
       <c r="AI70" s="20"/>
-      <c r="AJ70" s="20"/>
-      <c r="AK70" s="20"/>
-      <c r="AL70" s="20"/>
-      <c r="AM70" s="20"/>
-      <c r="AN70" s="20"/>
-      <c r="AO70" s="20"/>
-      <c r="AP70" s="20"/>
-      <c r="AQ70" s="20"/>
-      <c r="AR70" s="20"/>
-      <c r="AS70" s="20"/>
-      <c r="AT70" s="20"/>
-      <c r="AU70" s="20"/>
-      <c r="AV70" s="20"/>
-      <c r="AW70" s="22"/>
-    </row>
-    <row r="71" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ70" s="94"/>
+      <c r="AK70" s="94"/>
+      <c r="AL70" s="22"/>
+    </row>
+    <row r="71" spans="1:38" ht="20" customHeight="1">
       <c r="A71" s="19"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
@@ -6630,22 +6374,11 @@
       <c r="AG71" s="20"/>
       <c r="AH71" s="20"/>
       <c r="AI71" s="20"/>
-      <c r="AJ71" s="20"/>
-      <c r="AK71" s="20"/>
-      <c r="AL71" s="20"/>
-      <c r="AM71" s="20"/>
-      <c r="AN71" s="20"/>
-      <c r="AO71" s="20"/>
-      <c r="AP71" s="20"/>
-      <c r="AQ71" s="20"/>
-      <c r="AR71" s="20"/>
-      <c r="AS71" s="20"/>
-      <c r="AT71" s="20"/>
-      <c r="AU71" s="20"/>
-      <c r="AV71" s="20"/>
-      <c r="AW71" s="22"/>
-    </row>
-    <row r="72" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ71" s="94"/>
+      <c r="AK71" s="94"/>
+      <c r="AL71" s="22"/>
+    </row>
+    <row r="72" spans="1:38" ht="20" customHeight="1">
       <c r="A72" s="19"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
@@ -6681,22 +6414,11 @@
       <c r="AG72" s="20"/>
       <c r="AH72" s="20"/>
       <c r="AI72" s="20"/>
-      <c r="AJ72" s="20"/>
-      <c r="AK72" s="20"/>
-      <c r="AL72" s="20"/>
-      <c r="AM72" s="20"/>
-      <c r="AN72" s="20"/>
-      <c r="AO72" s="20"/>
-      <c r="AP72" s="20"/>
-      <c r="AQ72" s="20"/>
-      <c r="AR72" s="20"/>
-      <c r="AS72" s="20"/>
-      <c r="AT72" s="20"/>
-      <c r="AU72" s="20"/>
-      <c r="AV72" s="20"/>
-      <c r="AW72" s="22"/>
-    </row>
-    <row r="73" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ72" s="94"/>
+      <c r="AK72" s="94"/>
+      <c r="AL72" s="22"/>
+    </row>
+    <row r="73" spans="1:38" ht="20" customHeight="1">
       <c r="A73" s="19"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
@@ -6732,22 +6454,11 @@
       <c r="AG73" s="20"/>
       <c r="AH73" s="20"/>
       <c r="AI73" s="20"/>
-      <c r="AJ73" s="20"/>
-      <c r="AK73" s="20"/>
-      <c r="AL73" s="20"/>
-      <c r="AM73" s="20"/>
-      <c r="AN73" s="20"/>
-      <c r="AO73" s="20"/>
-      <c r="AP73" s="20"/>
-      <c r="AQ73" s="20"/>
-      <c r="AR73" s="20"/>
-      <c r="AS73" s="20"/>
-      <c r="AT73" s="20"/>
-      <c r="AU73" s="20"/>
-      <c r="AV73" s="20"/>
-      <c r="AW73" s="22"/>
-    </row>
-    <row r="74" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ73" s="94"/>
+      <c r="AK73" s="94"/>
+      <c r="AL73" s="22"/>
+    </row>
+    <row r="74" spans="1:38" ht="20" customHeight="1">
       <c r="A74" s="19"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
@@ -6783,22 +6494,11 @@
       <c r="AG74" s="20"/>
       <c r="AH74" s="20"/>
       <c r="AI74" s="20"/>
-      <c r="AJ74" s="20"/>
-      <c r="AK74" s="20"/>
-      <c r="AL74" s="20"/>
-      <c r="AM74" s="20"/>
-      <c r="AN74" s="20"/>
-      <c r="AO74" s="20"/>
-      <c r="AP74" s="20"/>
-      <c r="AQ74" s="20"/>
-      <c r="AR74" s="20"/>
-      <c r="AS74" s="20"/>
-      <c r="AT74" s="20"/>
-      <c r="AU74" s="20"/>
-      <c r="AV74" s="20"/>
-      <c r="AW74" s="22"/>
-    </row>
-    <row r="75" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ74" s="94"/>
+      <c r="AK74" s="94"/>
+      <c r="AL74" s="22"/>
+    </row>
+    <row r="75" spans="1:38" ht="20" customHeight="1">
       <c r="A75" s="19"/>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
@@ -6834,22 +6534,11 @@
       <c r="AG75" s="20"/>
       <c r="AH75" s="20"/>
       <c r="AI75" s="20"/>
-      <c r="AJ75" s="20"/>
-      <c r="AK75" s="20"/>
-      <c r="AL75" s="20"/>
-      <c r="AM75" s="20"/>
-      <c r="AN75" s="20"/>
-      <c r="AO75" s="20"/>
-      <c r="AP75" s="20"/>
-      <c r="AQ75" s="20"/>
-      <c r="AR75" s="20"/>
-      <c r="AS75" s="20"/>
-      <c r="AT75" s="20"/>
-      <c r="AU75" s="20"/>
-      <c r="AV75" s="20"/>
-      <c r="AW75" s="22"/>
-    </row>
-    <row r="76" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ75" s="94"/>
+      <c r="AK75" s="94"/>
+      <c r="AL75" s="22"/>
+    </row>
+    <row r="76" spans="1:38" ht="20" customHeight="1">
       <c r="A76" s="19"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
@@ -6885,22 +6574,11 @@
       <c r="AG76" s="20"/>
       <c r="AH76" s="20"/>
       <c r="AI76" s="20"/>
-      <c r="AJ76" s="20"/>
-      <c r="AK76" s="20"/>
-      <c r="AL76" s="20"/>
-      <c r="AM76" s="20"/>
-      <c r="AN76" s="20"/>
-      <c r="AO76" s="20"/>
-      <c r="AP76" s="20"/>
-      <c r="AQ76" s="20"/>
-      <c r="AR76" s="20"/>
-      <c r="AS76" s="20"/>
-      <c r="AT76" s="20"/>
-      <c r="AU76" s="20"/>
-      <c r="AV76" s="20"/>
-      <c r="AW76" s="22"/>
-    </row>
-    <row r="77" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ76" s="94"/>
+      <c r="AK76" s="94"/>
+      <c r="AL76" s="22"/>
+    </row>
+    <row r="77" spans="1:38" ht="20" customHeight="1">
       <c r="A77" s="19"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
@@ -6936,22 +6614,11 @@
       <c r="AG77" s="20"/>
       <c r="AH77" s="20"/>
       <c r="AI77" s="20"/>
-      <c r="AJ77" s="20"/>
-      <c r="AK77" s="20"/>
-      <c r="AL77" s="20"/>
-      <c r="AM77" s="20"/>
-      <c r="AN77" s="20"/>
-      <c r="AO77" s="20"/>
-      <c r="AP77" s="20"/>
-      <c r="AQ77" s="20"/>
-      <c r="AR77" s="20"/>
-      <c r="AS77" s="20"/>
-      <c r="AT77" s="20"/>
-      <c r="AU77" s="20"/>
-      <c r="AV77" s="20"/>
-      <c r="AW77" s="22"/>
-    </row>
-    <row r="78" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ77" s="94"/>
+      <c r="AK77" s="94"/>
+      <c r="AL77" s="22"/>
+    </row>
+    <row r="78" spans="1:38" ht="20" customHeight="1">
       <c r="A78" s="19"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
@@ -6987,22 +6654,11 @@
       <c r="AG78" s="20"/>
       <c r="AH78" s="20"/>
       <c r="AI78" s="20"/>
-      <c r="AJ78" s="20"/>
-      <c r="AK78" s="20"/>
-      <c r="AL78" s="20"/>
-      <c r="AM78" s="20"/>
-      <c r="AN78" s="20"/>
-      <c r="AO78" s="20"/>
-      <c r="AP78" s="20"/>
-      <c r="AQ78" s="20"/>
-      <c r="AR78" s="20"/>
-      <c r="AS78" s="20"/>
-      <c r="AT78" s="20"/>
-      <c r="AU78" s="20"/>
-      <c r="AV78" s="20"/>
-      <c r="AW78" s="22"/>
-    </row>
-    <row r="79" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ78" s="94"/>
+      <c r="AK78" s="94"/>
+      <c r="AL78" s="22"/>
+    </row>
+    <row r="79" spans="1:38" ht="20" customHeight="1">
       <c r="A79" s="19"/>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -7038,22 +6694,11 @@
       <c r="AG79" s="20"/>
       <c r="AH79" s="20"/>
       <c r="AI79" s="20"/>
-      <c r="AJ79" s="20"/>
-      <c r="AK79" s="20"/>
-      <c r="AL79" s="20"/>
-      <c r="AM79" s="20"/>
-      <c r="AN79" s="20"/>
-      <c r="AO79" s="20"/>
-      <c r="AP79" s="20"/>
-      <c r="AQ79" s="20"/>
-      <c r="AR79" s="20"/>
-      <c r="AS79" s="20"/>
-      <c r="AT79" s="20"/>
-      <c r="AU79" s="20"/>
-      <c r="AV79" s="20"/>
-      <c r="AW79" s="22"/>
-    </row>
-    <row r="80" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ79" s="94"/>
+      <c r="AK79" s="94"/>
+      <c r="AL79" s="22"/>
+    </row>
+    <row r="80" spans="1:38" ht="20" customHeight="1">
       <c r="A80" s="19"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -7089,22 +6734,11 @@
       <c r="AG80" s="20"/>
       <c r="AH80" s="20"/>
       <c r="AI80" s="20"/>
-      <c r="AJ80" s="20"/>
-      <c r="AK80" s="20"/>
-      <c r="AL80" s="20"/>
-      <c r="AM80" s="20"/>
-      <c r="AN80" s="20"/>
-      <c r="AO80" s="20"/>
-      <c r="AP80" s="20"/>
-      <c r="AQ80" s="20"/>
-      <c r="AR80" s="20"/>
-      <c r="AS80" s="20"/>
-      <c r="AT80" s="20"/>
-      <c r="AU80" s="20"/>
-      <c r="AV80" s="20"/>
-      <c r="AW80" s="22"/>
-    </row>
-    <row r="81" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ80" s="94"/>
+      <c r="AK80" s="94"/>
+      <c r="AL80" s="22"/>
+    </row>
+    <row r="81" spans="1:38" ht="20" customHeight="1">
       <c r="A81" s="19"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -7140,22 +6774,11 @@
       <c r="AG81" s="20"/>
       <c r="AH81" s="20"/>
       <c r="AI81" s="20"/>
-      <c r="AJ81" s="20"/>
-      <c r="AK81" s="20"/>
-      <c r="AL81" s="20"/>
-      <c r="AM81" s="20"/>
-      <c r="AN81" s="20"/>
-      <c r="AO81" s="20"/>
-      <c r="AP81" s="20"/>
-      <c r="AQ81" s="20"/>
-      <c r="AR81" s="20"/>
-      <c r="AS81" s="20"/>
-      <c r="AT81" s="20"/>
-      <c r="AU81" s="20"/>
-      <c r="AV81" s="20"/>
-      <c r="AW81" s="22"/>
-    </row>
-    <row r="82" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ81" s="94"/>
+      <c r="AK81" s="94"/>
+      <c r="AL81" s="22"/>
+    </row>
+    <row r="82" spans="1:38" ht="20" customHeight="1">
       <c r="A82" s="19"/>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
@@ -7191,32 +6814,21 @@
       <c r="AG82" s="20"/>
       <c r="AH82" s="20"/>
       <c r="AI82" s="20"/>
-      <c r="AJ82" s="20"/>
-      <c r="AK82" s="20"/>
-      <c r="AL82" s="20"/>
-      <c r="AM82" s="20"/>
-      <c r="AN82" s="20"/>
-      <c r="AO82" s="20"/>
-      <c r="AP82" s="20"/>
-      <c r="AQ82" s="20"/>
-      <c r="AR82" s="20"/>
-      <c r="AS82" s="20"/>
-      <c r="AT82" s="20"/>
-      <c r="AU82" s="20"/>
-      <c r="AV82" s="20"/>
-      <c r="AW82" s="22"/>
-    </row>
-    <row r="83" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="75" t="s">
+      <c r="AJ82" s="94"/>
+      <c r="AK82" s="94"/>
+      <c r="AL82" s="22"/>
+    </row>
+    <row r="83" spans="1:38" ht="20" customHeight="1">
+      <c r="A83" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B83" s="75"/>
-      <c r="C83" s="75"/>
-      <c r="D83" s="76" t="s">
+      <c r="B83" s="82"/>
+      <c r="C83" s="82"/>
+      <c r="D83" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="E83" s="76"/>
-      <c r="F83" s="76"/>
+      <c r="E83" s="83"/>
+      <c r="F83" s="83"/>
       <c r="G83" s="28"/>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
@@ -7246,22 +6858,11 @@
       <c r="AG83" s="29"/>
       <c r="AH83" s="29"/>
       <c r="AI83" s="29"/>
-      <c r="AJ83" s="29"/>
-      <c r="AK83" s="29"/>
-      <c r="AL83" s="29"/>
-      <c r="AM83" s="29"/>
-      <c r="AN83" s="29"/>
-      <c r="AO83" s="29"/>
-      <c r="AP83" s="29"/>
-      <c r="AQ83" s="29"/>
-      <c r="AR83" s="29"/>
-      <c r="AS83" s="29"/>
-      <c r="AT83" s="29"/>
-      <c r="AU83" s="29"/>
-      <c r="AV83" s="29"/>
-      <c r="AW83" s="30"/>
-    </row>
-    <row r="84" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ83" s="95"/>
+      <c r="AK83" s="95"/>
+      <c r="AL83" s="30"/>
+    </row>
+    <row r="84" spans="1:38" ht="20" customHeight="1">
       <c r="A84" s="19"/>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
@@ -7297,22 +6898,11 @@
       <c r="AG84" s="20"/>
       <c r="AH84" s="20"/>
       <c r="AI84" s="20"/>
-      <c r="AJ84" s="20"/>
-      <c r="AK84" s="20"/>
-      <c r="AL84" s="20"/>
-      <c r="AM84" s="20"/>
-      <c r="AN84" s="20"/>
-      <c r="AO84" s="20"/>
-      <c r="AP84" s="20"/>
-      <c r="AQ84" s="20"/>
-      <c r="AR84" s="20"/>
-      <c r="AS84" s="20"/>
-      <c r="AT84" s="20"/>
-      <c r="AU84" s="20"/>
-      <c r="AV84" s="20"/>
-      <c r="AW84" s="22"/>
-    </row>
-    <row r="85" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ84" s="94"/>
+      <c r="AK84" s="94"/>
+      <c r="AL84" s="22"/>
+    </row>
+    <row r="85" spans="1:38" ht="20" customHeight="1">
       <c r="A85" s="19"/>
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
@@ -7348,22 +6938,11 @@
       <c r="AG85" s="20"/>
       <c r="AH85" s="20"/>
       <c r="AI85" s="20"/>
-      <c r="AJ85" s="20"/>
-      <c r="AK85" s="20"/>
-      <c r="AL85" s="20"/>
-      <c r="AM85" s="20"/>
-      <c r="AN85" s="20"/>
-      <c r="AO85" s="20"/>
-      <c r="AP85" s="20"/>
-      <c r="AQ85" s="20"/>
-      <c r="AR85" s="20"/>
-      <c r="AS85" s="20"/>
-      <c r="AT85" s="20"/>
-      <c r="AU85" s="20"/>
-      <c r="AV85" s="20"/>
-      <c r="AW85" s="22"/>
-    </row>
-    <row r="86" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ85" s="94"/>
+      <c r="AK85" s="94"/>
+      <c r="AL85" s="22"/>
+    </row>
+    <row r="86" spans="1:38" ht="20" customHeight="1">
       <c r="A86" s="19"/>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
@@ -7399,22 +6978,11 @@
       <c r="AG86" s="20"/>
       <c r="AH86" s="20"/>
       <c r="AI86" s="20"/>
-      <c r="AJ86" s="20"/>
-      <c r="AK86" s="20"/>
-      <c r="AL86" s="20"/>
-      <c r="AM86" s="20"/>
-      <c r="AN86" s="20"/>
-      <c r="AO86" s="20"/>
-      <c r="AP86" s="20"/>
-      <c r="AQ86" s="20"/>
-      <c r="AR86" s="20"/>
-      <c r="AS86" s="20"/>
-      <c r="AT86" s="20"/>
-      <c r="AU86" s="20"/>
-      <c r="AV86" s="20"/>
-      <c r="AW86" s="22"/>
-    </row>
-    <row r="87" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ86" s="94"/>
+      <c r="AK86" s="94"/>
+      <c r="AL86" s="22"/>
+    </row>
+    <row r="87" spans="1:38" ht="20" customHeight="1">
       <c r="A87" s="19"/>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
@@ -7450,22 +7018,11 @@
       <c r="AG87" s="20"/>
       <c r="AH87" s="20"/>
       <c r="AI87" s="20"/>
-      <c r="AJ87" s="20"/>
-      <c r="AK87" s="20"/>
-      <c r="AL87" s="20"/>
-      <c r="AM87" s="20"/>
-      <c r="AN87" s="20"/>
-      <c r="AO87" s="20"/>
-      <c r="AP87" s="20"/>
-      <c r="AQ87" s="20"/>
-      <c r="AR87" s="20"/>
-      <c r="AS87" s="20"/>
-      <c r="AT87" s="20"/>
-      <c r="AU87" s="20"/>
-      <c r="AV87" s="20"/>
-      <c r="AW87" s="22"/>
-    </row>
-    <row r="88" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ87" s="94"/>
+      <c r="AK87" s="94"/>
+      <c r="AL87" s="22"/>
+    </row>
+    <row r="88" spans="1:38" ht="20" customHeight="1">
       <c r="A88" s="19"/>
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
@@ -7501,22 +7058,11 @@
       <c r="AG88" s="20"/>
       <c r="AH88" s="20"/>
       <c r="AI88" s="20"/>
-      <c r="AJ88" s="20"/>
-      <c r="AK88" s="20"/>
-      <c r="AL88" s="20"/>
-      <c r="AM88" s="20"/>
-      <c r="AN88" s="20"/>
-      <c r="AO88" s="20"/>
-      <c r="AP88" s="20"/>
-      <c r="AQ88" s="20"/>
-      <c r="AR88" s="20"/>
-      <c r="AS88" s="20"/>
-      <c r="AT88" s="20"/>
-      <c r="AU88" s="20"/>
-      <c r="AV88" s="20"/>
-      <c r="AW88" s="22"/>
-    </row>
-    <row r="89" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ88" s="94"/>
+      <c r="AK88" s="94"/>
+      <c r="AL88" s="22"/>
+    </row>
+    <row r="89" spans="1:38" ht="20" customHeight="1">
       <c r="A89" s="19"/>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
@@ -7552,22 +7098,11 @@
       <c r="AG89" s="20"/>
       <c r="AH89" s="20"/>
       <c r="AI89" s="20"/>
-      <c r="AJ89" s="20"/>
-      <c r="AK89" s="20"/>
-      <c r="AL89" s="20"/>
-      <c r="AM89" s="20"/>
-      <c r="AN89" s="20"/>
-      <c r="AO89" s="20"/>
-      <c r="AP89" s="20"/>
-      <c r="AQ89" s="20"/>
-      <c r="AR89" s="20"/>
-      <c r="AS89" s="20"/>
-      <c r="AT89" s="20"/>
-      <c r="AU89" s="20"/>
-      <c r="AV89" s="20"/>
-      <c r="AW89" s="22"/>
-    </row>
-    <row r="90" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ89" s="94"/>
+      <c r="AK89" s="94"/>
+      <c r="AL89" s="22"/>
+    </row>
+    <row r="90" spans="1:38" ht="20" customHeight="1">
       <c r="A90" s="19"/>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
@@ -7603,32 +7138,21 @@
       <c r="AG90" s="20"/>
       <c r="AH90" s="20"/>
       <c r="AI90" s="20"/>
-      <c r="AJ90" s="20"/>
-      <c r="AK90" s="20"/>
-      <c r="AL90" s="20"/>
-      <c r="AM90" s="20"/>
-      <c r="AN90" s="20"/>
-      <c r="AO90" s="20"/>
-      <c r="AP90" s="20"/>
-      <c r="AQ90" s="20"/>
-      <c r="AR90" s="20"/>
-      <c r="AS90" s="20"/>
-      <c r="AT90" s="20"/>
-      <c r="AU90" s="20"/>
-      <c r="AV90" s="20"/>
-      <c r="AW90" s="22"/>
-    </row>
-    <row r="91" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="75" t="s">
+      <c r="AJ90" s="94"/>
+      <c r="AK90" s="94"/>
+      <c r="AL90" s="22"/>
+    </row>
+    <row r="91" spans="1:38" ht="20" customHeight="1">
+      <c r="A91" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="75"/>
-      <c r="C91" s="75"/>
-      <c r="D91" s="76" t="s">
+      <c r="B91" s="82"/>
+      <c r="C91" s="82"/>
+      <c r="D91" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="E91" s="76"/>
-      <c r="F91" s="76"/>
+      <c r="E91" s="83"/>
+      <c r="F91" s="83"/>
       <c r="G91" s="28"/>
       <c r="H91" s="28"/>
       <c r="I91" s="28"/>
@@ -7658,22 +7182,11 @@
       <c r="AG91" s="29"/>
       <c r="AH91" s="29"/>
       <c r="AI91" s="29"/>
-      <c r="AJ91" s="29"/>
-      <c r="AK91" s="29"/>
-      <c r="AL91" s="29"/>
-      <c r="AM91" s="29"/>
-      <c r="AN91" s="29"/>
-      <c r="AO91" s="29"/>
-      <c r="AP91" s="29"/>
-      <c r="AQ91" s="29"/>
-      <c r="AR91" s="29"/>
-      <c r="AS91" s="29"/>
-      <c r="AT91" s="29"/>
-      <c r="AU91" s="29"/>
-      <c r="AV91" s="29"/>
-      <c r="AW91" s="30"/>
-    </row>
-    <row r="92" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ91" s="95"/>
+      <c r="AK91" s="95"/>
+      <c r="AL91" s="30"/>
+    </row>
+    <row r="92" spans="1:38" ht="20" customHeight="1">
       <c r="A92" s="19"/>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
@@ -7709,437 +7222,255 @@
       <c r="AG92" s="20"/>
       <c r="AH92" s="20"/>
       <c r="AI92" s="20"/>
-      <c r="AJ92" s="20"/>
-      <c r="AK92" s="20"/>
-      <c r="AL92" s="20"/>
-      <c r="AM92" s="20"/>
-      <c r="AN92" s="20"/>
-      <c r="AO92" s="20"/>
-      <c r="AP92" s="20"/>
-      <c r="AQ92" s="20"/>
-      <c r="AR92" s="20"/>
-      <c r="AS92" s="20"/>
-      <c r="AT92" s="20"/>
-      <c r="AU92" s="20"/>
-      <c r="AV92" s="20"/>
-      <c r="AW92" s="22"/>
-    </row>
-    <row r="93" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ92" s="94"/>
+      <c r="AK92" s="94"/>
+      <c r="AL92" s="22"/>
+    </row>
+    <row r="93" spans="1:38" ht="20" customHeight="1">
       <c r="A93" s="23"/>
       <c r="B93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AW93" s="24"/>
-    </row>
-    <row r="94" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL93" s="24"/>
+    </row>
+    <row r="94" spans="1:38" ht="20" customHeight="1">
       <c r="A94" s="23"/>
-      <c r="AW94" s="24"/>
-    </row>
-    <row r="95" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL94" s="24"/>
+    </row>
+    <row r="95" spans="1:38" ht="20" customHeight="1">
       <c r="A95" s="23"/>
-      <c r="AW95" s="24"/>
-    </row>
-    <row r="96" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL95" s="24"/>
+    </row>
+    <row r="96" spans="1:38" ht="20" customHeight="1">
       <c r="A96" s="23"/>
-      <c r="AW96" s="24"/>
-    </row>
-    <row r="97" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL96" s="24"/>
+    </row>
+    <row r="97" spans="1:38" ht="20" customHeight="1">
       <c r="A97" s="23"/>
-      <c r="AW97" s="24"/>
-    </row>
-    <row r="98" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL97" s="24"/>
+    </row>
+    <row r="98" spans="1:38" ht="20" customHeight="1">
       <c r="A98" s="23"/>
-      <c r="AW98" s="24"/>
-    </row>
-    <row r="99" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL98" s="24"/>
+    </row>
+    <row r="99" spans="1:38" ht="20" customHeight="1">
       <c r="A99" s="23"/>
-      <c r="AW99" s="24"/>
-    </row>
-    <row r="100" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL99" s="24"/>
+    </row>
+    <row r="100" spans="1:38" ht="20" customHeight="1">
       <c r="A100" s="23"/>
-      <c r="AW100" s="24"/>
-    </row>
-    <row r="101" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL100" s="24"/>
+    </row>
+    <row r="101" spans="1:38" ht="20" customHeight="1">
       <c r="A101" s="23"/>
-      <c r="AW101" s="24"/>
-    </row>
-    <row r="102" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL101" s="24"/>
+    </row>
+    <row r="102" spans="1:38" ht="20" customHeight="1">
       <c r="A102" s="23"/>
-      <c r="AW102" s="24"/>
-    </row>
-    <row r="103" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL102" s="24"/>
+    </row>
+    <row r="103" spans="1:38" ht="20" customHeight="1">
       <c r="A103" s="23"/>
-      <c r="AW103" s="24"/>
-    </row>
-    <row r="104" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL103" s="24"/>
+    </row>
+    <row r="104" spans="1:38" ht="20" customHeight="1">
       <c r="A104" s="23"/>
-      <c r="AW104" s="24"/>
-    </row>
-    <row r="105" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL104" s="24"/>
+    </row>
+    <row r="105" spans="1:38" ht="20" customHeight="1">
       <c r="A105" s="23"/>
-      <c r="AW105" s="24"/>
-    </row>
-    <row r="106" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL105" s="24"/>
+    </row>
+    <row r="106" spans="1:38" ht="20" customHeight="1">
       <c r="A106" s="23"/>
-      <c r="AW106" s="24"/>
-    </row>
-    <row r="107" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL106" s="24"/>
+    </row>
+    <row r="107" spans="1:38" ht="20" customHeight="1">
       <c r="A107" s="23"/>
-      <c r="AW107" s="24"/>
-    </row>
-    <row r="108" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL107" s="24"/>
+    </row>
+    <row r="108" spans="1:38" ht="20" customHeight="1">
       <c r="A108" s="23"/>
-      <c r="AW108" s="24"/>
-    </row>
-    <row r="109" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL108" s="24"/>
+    </row>
+    <row r="109" spans="1:38" ht="20" customHeight="1">
       <c r="A109" s="23"/>
-      <c r="AW109" s="24"/>
-    </row>
-    <row r="110" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL109" s="24"/>
+    </row>
+    <row r="110" spans="1:38" ht="20" customHeight="1">
       <c r="A110" s="23"/>
-      <c r="AW110" s="24"/>
-    </row>
-    <row r="111" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL110" s="24"/>
+    </row>
+    <row r="111" spans="1:38" ht="20" customHeight="1">
       <c r="A111" s="23"/>
-      <c r="AW111" s="24"/>
-    </row>
-    <row r="112" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL111" s="24"/>
+    </row>
+    <row r="112" spans="1:38" ht="20" customHeight="1">
       <c r="A112" s="23"/>
       <c r="B112" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AW112" s="24"/>
-    </row>
-    <row r="113" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL112" s="24"/>
+    </row>
+    <row r="113" spans="1:38" ht="20" customHeight="1">
       <c r="A113" s="23"/>
-      <c r="AW113" s="24"/>
-    </row>
-    <row r="114" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL113" s="24"/>
+    </row>
+    <row r="114" spans="1:38" ht="20" customHeight="1">
       <c r="A114" s="23"/>
-      <c r="AW114" s="24"/>
-    </row>
-    <row r="115" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL114" s="24"/>
+    </row>
+    <row r="115" spans="1:38" ht="20" customHeight="1">
       <c r="A115" s="23"/>
-      <c r="AW115" s="24"/>
-    </row>
-    <row r="116" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL115" s="24"/>
+    </row>
+    <row r="116" spans="1:38" ht="20" customHeight="1">
       <c r="A116" s="23"/>
-      <c r="AW116" s="24"/>
-    </row>
-    <row r="117" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL116" s="24"/>
+    </row>
+    <row r="117" spans="1:38" ht="20" customHeight="1">
       <c r="A117" s="23"/>
-      <c r="AW117" s="24"/>
-    </row>
-    <row r="118" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL117" s="24"/>
+    </row>
+    <row r="118" spans="1:38" ht="20" customHeight="1">
       <c r="A118" s="23"/>
-      <c r="AW118" s="24"/>
-    </row>
-    <row r="119" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL118" s="24"/>
+    </row>
+    <row r="119" spans="1:38" ht="20" customHeight="1">
       <c r="A119" s="23"/>
-      <c r="AW119" s="24"/>
-    </row>
-    <row r="120" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL119" s="24"/>
+    </row>
+    <row r="120" spans="1:38" ht="20" customHeight="1">
       <c r="A120" s="23"/>
-      <c r="AW120" s="24"/>
-    </row>
-    <row r="121" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL120" s="24"/>
+    </row>
+    <row r="121" spans="1:38" ht="20" customHeight="1">
       <c r="A121" s="23"/>
-      <c r="AW121" s="24"/>
-    </row>
-    <row r="122" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL121" s="24"/>
+    </row>
+    <row r="122" spans="1:38" ht="20" customHeight="1">
       <c r="A122" s="23"/>
-      <c r="AW122" s="24"/>
-    </row>
-    <row r="123" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL122" s="24"/>
+    </row>
+    <row r="123" spans="1:38" ht="20" customHeight="1">
       <c r="A123" s="23"/>
-      <c r="AW123" s="24"/>
-    </row>
-    <row r="124" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL123" s="24"/>
+    </row>
+    <row r="124" spans="1:38" ht="20" customHeight="1">
       <c r="A124" s="23"/>
-      <c r="AW124" s="24"/>
-    </row>
-    <row r="125" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL124" s="24"/>
+    </row>
+    <row r="125" spans="1:38" ht="20" customHeight="1">
       <c r="A125" s="23"/>
-      <c r="AW125" s="24"/>
-    </row>
-    <row r="126" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL125" s="24"/>
+    </row>
+    <row r="126" spans="1:38" ht="20" customHeight="1">
       <c r="A126" s="23"/>
-      <c r="AW126" s="24"/>
-    </row>
-    <row r="127" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL126" s="24"/>
+    </row>
+    <row r="127" spans="1:38" ht="20" customHeight="1">
       <c r="A127" s="23"/>
-      <c r="AW127" s="24"/>
-    </row>
-    <row r="128" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL127" s="24"/>
+    </row>
+    <row r="128" spans="1:38" ht="20" customHeight="1">
       <c r="A128" s="23"/>
-      <c r="AW128" s="24"/>
-    </row>
-    <row r="129" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL128" s="24"/>
+    </row>
+    <row r="129" spans="1:38" ht="20" customHeight="1">
       <c r="A129" s="23"/>
-      <c r="AW129" s="24"/>
-    </row>
-    <row r="130" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL129" s="24"/>
+    </row>
+    <row r="130" spans="1:38" ht="20" customHeight="1">
       <c r="A130" s="23"/>
-      <c r="AW130" s="24"/>
-    </row>
-    <row r="131" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL130" s="24"/>
+    </row>
+    <row r="131" spans="1:38" ht="20" customHeight="1">
       <c r="A131" s="23"/>
-      <c r="AW131" s="24"/>
-    </row>
-    <row r="132" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL131" s="24"/>
+    </row>
+    <row r="132" spans="1:38" ht="20" customHeight="1">
       <c r="A132" s="23"/>
-      <c r="AW132" s="24"/>
-    </row>
-    <row r="133" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL132" s="24"/>
+    </row>
+    <row r="133" spans="1:38" ht="20" customHeight="1">
       <c r="A133" s="23"/>
-      <c r="AW133" s="24"/>
-    </row>
-    <row r="134" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL133" s="24"/>
+    </row>
+    <row r="134" spans="1:38" ht="20" customHeight="1">
       <c r="A134" s="23"/>
-      <c r="AW134" s="24"/>
-    </row>
-    <row r="135" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL134" s="24"/>
+    </row>
+    <row r="135" spans="1:38" ht="20" customHeight="1">
       <c r="A135" s="23"/>
-      <c r="AW135" s="24"/>
-    </row>
-    <row r="136" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="23"/>
-      <c r="AW136" s="24"/>
-    </row>
-    <row r="137" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="23"/>
-      <c r="AW137" s="24"/>
-    </row>
-    <row r="138" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="23"/>
-      <c r="AW138" s="24"/>
-    </row>
-    <row r="139" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="23"/>
-      <c r="AW139" s="24"/>
-    </row>
-    <row r="140" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="23"/>
-      <c r="AW140" s="24"/>
-    </row>
-    <row r="141" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="23"/>
-      <c r="AW141" s="24"/>
-    </row>
-    <row r="142" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="23"/>
-      <c r="AW142" s="24"/>
-    </row>
-    <row r="143" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="23"/>
-      <c r="AW143" s="24"/>
-    </row>
-    <row r="144" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="23"/>
-      <c r="AW144" s="24"/>
-    </row>
-    <row r="145" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="23"/>
-      <c r="AW145" s="24"/>
-    </row>
-    <row r="146" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="23"/>
-      <c r="AW146" s="24"/>
-    </row>
-    <row r="147" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="23"/>
-      <c r="AW147" s="24"/>
-    </row>
-    <row r="148" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="23"/>
-      <c r="AW148" s="24"/>
-    </row>
-    <row r="149" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="23"/>
-      <c r="AW149" s="24"/>
-    </row>
-    <row r="150" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="23"/>
-      <c r="AW150" s="24"/>
-    </row>
-    <row r="151" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="23"/>
-      <c r="AW151" s="24"/>
-    </row>
-    <row r="152" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="23"/>
-      <c r="AW152" s="24"/>
-    </row>
-    <row r="153" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="23"/>
-      <c r="AW153" s="24"/>
-    </row>
-    <row r="154" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A154" s="23"/>
-      <c r="AW154" s="24"/>
-    </row>
-    <row r="155" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="23"/>
-      <c r="AW155" s="24"/>
-    </row>
-    <row r="156" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="23"/>
-      <c r="AW156" s="24"/>
-    </row>
-    <row r="157" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="23"/>
-      <c r="AW157" s="24"/>
-    </row>
-    <row r="158" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="23"/>
-      <c r="AW158" s="24"/>
-    </row>
-    <row r="159" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="23"/>
-      <c r="AW159" s="24"/>
-    </row>
-    <row r="160" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="23"/>
-      <c r="AW160" s="24"/>
-    </row>
-    <row r="161" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="23"/>
-      <c r="AW161" s="24"/>
-    </row>
-    <row r="162" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="23"/>
-      <c r="AW162" s="24"/>
-    </row>
-    <row r="163" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="23"/>
-      <c r="AW163" s="24"/>
-    </row>
-    <row r="164" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A164" s="23"/>
-      <c r="AW164" s="24"/>
-    </row>
-    <row r="165" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A165" s="23"/>
-      <c r="AW165" s="24"/>
-    </row>
-    <row r="166" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A166" s="23"/>
-      <c r="AW166" s="24"/>
-    </row>
-    <row r="167" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A167" s="23"/>
-      <c r="AW167" s="24"/>
-    </row>
-    <row r="168" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="23"/>
-      <c r="AW168" s="24"/>
-    </row>
-    <row r="169" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="23"/>
-      <c r="AW169" s="24"/>
-    </row>
-    <row r="170" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A170" s="23"/>
-      <c r="AW170" s="24"/>
-    </row>
-    <row r="171" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="23"/>
-      <c r="AW171" s="24"/>
-    </row>
-    <row r="172" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="23"/>
-      <c r="AW172" s="24"/>
-    </row>
-    <row r="173" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="23"/>
-      <c r="AW173" s="24"/>
-    </row>
-    <row r="174" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="23"/>
-      <c r="AW174" s="24"/>
-    </row>
-    <row r="175" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="23"/>
-      <c r="AW175" s="24"/>
-    </row>
-    <row r="176" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="25"/>
-      <c r="B176" s="26"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="26"/>
-      <c r="E176" s="26"/>
-      <c r="F176" s="26"/>
-      <c r="G176" s="26"/>
-      <c r="H176" s="26"/>
-      <c r="I176" s="26"/>
-      <c r="J176" s="26"/>
-      <c r="K176" s="26"/>
-      <c r="L176" s="26"/>
-      <c r="M176" s="26"/>
-      <c r="N176" s="26"/>
-      <c r="O176" s="26"/>
-      <c r="P176" s="26"/>
-      <c r="Q176" s="26"/>
-      <c r="R176" s="26"/>
-      <c r="S176" s="26"/>
-      <c r="T176" s="26"/>
-      <c r="U176" s="26"/>
-      <c r="V176" s="26"/>
-      <c r="W176" s="26"/>
-      <c r="X176" s="26"/>
-      <c r="Y176" s="26"/>
-      <c r="Z176" s="26"/>
-      <c r="AA176" s="26"/>
-      <c r="AB176" s="26"/>
-      <c r="AC176" s="26"/>
-      <c r="AD176" s="26"/>
-      <c r="AE176" s="26"/>
-      <c r="AF176" s="26"/>
-      <c r="AG176" s="26"/>
-      <c r="AH176" s="26"/>
-      <c r="AI176" s="26"/>
-      <c r="AJ176" s="26"/>
-      <c r="AK176" s="26"/>
-      <c r="AL176" s="26"/>
-      <c r="AM176" s="26"/>
-      <c r="AN176" s="26"/>
-      <c r="AO176" s="26"/>
-      <c r="AP176" s="26"/>
-      <c r="AQ176" s="26"/>
-      <c r="AR176" s="26"/>
-      <c r="AS176" s="26"/>
-      <c r="AT176" s="26"/>
-      <c r="AU176" s="26"/>
-      <c r="AV176" s="26"/>
-      <c r="AW176" s="27"/>
+      <c r="AL135" s="24"/>
+    </row>
+    <row r="136" spans="1:38" ht="20" customHeight="1">
+      <c r="A136" s="25"/>
+      <c r="B136" s="26"/>
+      <c r="C136" s="26"/>
+      <c r="D136" s="26"/>
+      <c r="E136" s="26"/>
+      <c r="F136" s="26"/>
+      <c r="G136" s="26"/>
+      <c r="H136" s="26"/>
+      <c r="I136" s="26"/>
+      <c r="J136" s="26"/>
+      <c r="K136" s="26"/>
+      <c r="L136" s="26"/>
+      <c r="M136" s="26"/>
+      <c r="N136" s="26"/>
+      <c r="O136" s="26"/>
+      <c r="P136" s="26"/>
+      <c r="Q136" s="26"/>
+      <c r="R136" s="26"/>
+      <c r="S136" s="26"/>
+      <c r="T136" s="26"/>
+      <c r="U136" s="26"/>
+      <c r="V136" s="26"/>
+      <c r="W136" s="26"/>
+      <c r="X136" s="26"/>
+      <c r="Y136" s="26"/>
+      <c r="Z136" s="26"/>
+      <c r="AA136" s="26"/>
+      <c r="AB136" s="26"/>
+      <c r="AC136" s="26"/>
+      <c r="AD136" s="26"/>
+      <c r="AE136" s="26"/>
+      <c r="AF136" s="26"/>
+      <c r="AG136" s="26"/>
+      <c r="AH136" s="26"/>
+      <c r="AI136" s="26"/>
+      <c r="AJ136" s="96"/>
+      <c r="AK136" s="96"/>
+      <c r="AL136" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="A1:N4"/>
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="T1:AA1"/>
     <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="AE1:AL2"/>
     <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AE3:AH4"/>
+    <mergeCell ref="AE3:AL4"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="T2:AA2"/>
     <mergeCell ref="O3:S3"/>
     <mergeCell ref="T3:AA3"/>
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="AB3:AD4"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="82" max="49" man="1"/>
+    <brk id="82" max="39" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -8154,7 +7485,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8163,67 +7494,67 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A36A9F4-38DA-8548-94CF-E223071B437C}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="3.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:16" ht="20" customHeight="1">
+      <c r="A1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="83" t="str">
+      <c r="H1" s="79" t="str">
         <f>試験項目!S1</f>
-        <v>佐藤</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
+        <v>amoibe</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="20" customHeight="1">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="83"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="79"/>
+    </row>
+    <row r="3" spans="1:16" ht="20" customHeight="1">
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="31" t="s">
         <v>5</v>
       </c>
@@ -8231,19 +7562,19 @@
         <f>試験項目!I3</f>
         <v>在庫センター情報</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="71">
         <f>試験項目!S3</f>
-        <v>45700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="20" customHeight="1">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
@@ -8251,17 +7582,17 @@
         <f>試験項目!I4</f>
         <v>IT01F004</v>
       </c>
-      <c r="G4" s="91"/>
-      <c r="H4" s="89"/>
-    </row>
-    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="82" t="s">
+      <c r="G4" s="89"/>
+      <c r="H4" s="90"/>
+    </row>
+    <row r="5" spans="1:16" ht="20" customHeight="1">
+      <c r="A5" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="91" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="86" t="s">
@@ -8279,14 +7610,14 @@
       <c r="H5" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="78" t="s">
         <v>47</v>
       </c>
       <c r="J5" s="86" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="20" customHeight="1">
       <c r="A6" s="86"/>
       <c r="B6" s="86"/>
       <c r="C6" s="86"/>
@@ -8295,10 +7626,10 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="87"/>
-      <c r="I6" s="82"/>
+      <c r="I6" s="78"/>
       <c r="J6" s="87"/>
     </row>
-    <row r="7" spans="1:17" ht="100.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="100.5" customHeight="1">
       <c r="A7" s="33" t="s">
         <v>51</v>
       </c>
@@ -8330,7 +7661,7 @@
         <v>45700</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" s="43" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -8342,7 +7673,7 @@
       <c r="I8" s="42"/>
       <c r="J8" s="34"/>
     </row>
-    <row r="9" spans="1:17" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" s="43" customFormat="1" ht="20" customHeight="1">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -8354,7 +7685,7 @@
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="1:17" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" s="43" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -8366,7 +7697,7 @@
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="1:17" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" s="43" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -8378,7 +7709,7 @@
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="1:17" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" s="43" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -8390,10 +7721,10 @@
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="1:17" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:17" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:17" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:17" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" s="43" customFormat="1" ht="20" customHeight="1"/>
+    <row r="14" spans="1:16" s="43" customFormat="1" ht="20" customHeight="1"/>
+    <row r="15" spans="1:16" s="43" customFormat="1" ht="20" customHeight="1"/>
+    <row r="16" spans="1:16" s="43" customFormat="1" ht="20" customHeight="1">
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
@@ -8403,14 +7734,13 @@
       <c r="N16" s="44"/>
       <c r="O16" s="44"/>
       <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-    </row>
-    <row r="17" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    </row>
+    <row r="17" s="43" customFormat="1" ht="20" customHeight="1"/>
+    <row r="18" s="43" customFormat="1" ht="20" customHeight="1"/>
+    <row r="19" s="43" customFormat="1" ht="20" customHeight="1"/>
+    <row r="20" s="43" customFormat="1" ht="20" customHeight="1"/>
+    <row r="21" s="43" customFormat="1" ht="20" customHeight="1"/>
+    <row r="22" s="43" customFormat="1" ht="20" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="J5:J6"/>
@@ -8441,12 +7771,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="3.6640625" style="41"/>
+    <col min="1" max="16384" width="3.7109375" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="35"/>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -8497,185 +7827,436 @@
       <c r="AV1" s="36"/>
       <c r="AW1" s="37"/>
     </row>
-    <row r="2" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A2" s="39"/>
       <c r="B2" s="38" t="s">
         <v>33</v>
       </c>
       <c r="AW2" s="40"/>
     </row>
-    <row r="3" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A3" s="39"/>
       <c r="AW3" s="40"/>
     </row>
-    <row r="4" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="39"/>
       <c r="AW4" s="40"/>
     </row>
-    <row r="5" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A5" s="39"/>
       <c r="AW5" s="40"/>
     </row>
-    <row r="6" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A6" s="39"/>
       <c r="AW6" s="40"/>
     </row>
-    <row r="7" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="39"/>
       <c r="AW7" s="40"/>
     </row>
-    <row r="8" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="39"/>
       <c r="AW8" s="40"/>
     </row>
-    <row r="9" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A9" s="39"/>
       <c r="AW9" s="40"/>
     </row>
-    <row r="10" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="39"/>
       <c r="AW10" s="40"/>
     </row>
-    <row r="11" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="39"/>
       <c r="AW11" s="40"/>
     </row>
-    <row r="12" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="39"/>
       <c r="AW12" s="40"/>
     </row>
-    <row r="13" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A13" s="39"/>
       <c r="AW13" s="40"/>
     </row>
-    <row r="14" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A14" s="39"/>
       <c r="AW14" s="40"/>
     </row>
-    <row r="15" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A15" s="39"/>
       <c r="AW15" s="40"/>
     </row>
-    <row r="16" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="39"/>
       <c r="AW16" s="40"/>
     </row>
-    <row r="17" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="39"/>
       <c r="AW17" s="40"/>
     </row>
-    <row r="18" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="39"/>
       <c r="AW18" s="40"/>
     </row>
-    <row r="19" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="39"/>
       <c r="AW19" s="40"/>
     </row>
-    <row r="20" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A20" s="39"/>
       <c r="AW20" s="40"/>
     </row>
-    <row r="21" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A21" s="39"/>
       <c r="B21" s="38" t="s">
         <v>34</v>
       </c>
       <c r="AW21" s="40"/>
     </row>
-    <row r="22" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A22" s="39"/>
       <c r="AW22" s="40"/>
     </row>
-    <row r="23" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A23" s="39"/>
       <c r="AW23" s="40"/>
     </row>
-    <row r="24" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="39"/>
       <c r="AW24" s="40"/>
     </row>
-    <row r="25" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="39"/>
       <c r="AW25" s="40"/>
     </row>
-    <row r="26" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="39"/>
       <c r="AW26" s="40"/>
     </row>
-    <row r="27" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="39"/>
       <c r="AW27" s="40"/>
     </row>
-    <row r="28" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A28" s="39"/>
       <c r="AW28" s="40"/>
     </row>
-    <row r="29" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="39"/>
       <c r="AW29" s="40"/>
     </row>
-    <row r="30" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="39"/>
       <c r="AW30" s="40"/>
     </row>
-    <row r="31" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="39"/>
       <c r="AW31" s="40"/>
     </row>
-    <row r="32" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="39"/>
       <c r="AW32" s="40"/>
     </row>
-    <row r="33" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="39"/>
       <c r="AW33" s="40"/>
     </row>
-    <row r="34" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="39"/>
       <c r="AW34" s="40"/>
     </row>
-    <row r="35" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A35" s="39"/>
       <c r="AW35" s="40"/>
     </row>
-    <row r="36" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="39"/>
       <c r="AW36" s="40"/>
     </row>
-    <row r="37" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="39"/>
       <c r="AW37" s="40"/>
     </row>
-    <row r="38" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="39"/>
       <c r="AW38" s="40"/>
     </row>
-    <row r="39" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="39"/>
       <c r="AW39" s="40"/>
     </row>
-    <row r="40" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="39"/>
       <c r="AW40" s="40"/>
     </row>
-    <row r="41" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="39"/>
       <c r="AW41" s="40"/>
     </row>
-    <row r="42" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A42" s="39"/>
       <c r="AW42" s="40"/>
     </row>
-    <row r="43" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A43" s="39"/>
       <c r="AW43" s="40"/>
     </row>
-    <row r="44" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A44" s="39"/>
       <c r="AW44" s="40"/>
     </row>
-    <row r="45" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A45" s="39"/>
+      <c r="AW45" s="40"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9968FF-7DFF-C34A-A774-F01267AD6EAF}">
+  <dimension ref="A1:AW45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="3.7109375" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="37"/>
+    </row>
+    <row r="2" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A2" s="39"/>
+      <c r="B2" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW2" s="40"/>
+    </row>
+    <row r="3" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A3" s="39"/>
+      <c r="AW3" s="40"/>
+    </row>
+    <row r="4" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A4" s="39"/>
+      <c r="AW4" s="40"/>
+    </row>
+    <row r="5" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A5" s="39"/>
+      <c r="AW5" s="40"/>
+    </row>
+    <row r="6" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A6" s="39"/>
+      <c r="AW6" s="40"/>
+    </row>
+    <row r="7" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A7" s="39"/>
+      <c r="AW7" s="40"/>
+    </row>
+    <row r="8" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="AW8" s="40"/>
+    </row>
+    <row r="9" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A9" s="39"/>
+      <c r="AW9" s="40"/>
+    </row>
+    <row r="10" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A10" s="39"/>
+      <c r="AW10" s="40"/>
+    </row>
+    <row r="11" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A11" s="39"/>
+      <c r="AW11" s="40"/>
+    </row>
+    <row r="12" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A12" s="39"/>
+      <c r="AW12" s="40"/>
+    </row>
+    <row r="13" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A13" s="39"/>
+      <c r="AW13" s="40"/>
+    </row>
+    <row r="14" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A14" s="39"/>
+      <c r="AW14" s="40"/>
+    </row>
+    <row r="15" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A15" s="39"/>
+      <c r="AW15" s="40"/>
+    </row>
+    <row r="16" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A16" s="39"/>
+      <c r="AW16" s="40"/>
+    </row>
+    <row r="17" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A17" s="39"/>
+      <c r="AW17" s="40"/>
+    </row>
+    <row r="18" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A18" s="39"/>
+      <c r="AW18" s="40"/>
+    </row>
+    <row r="19" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A19" s="39"/>
+      <c r="AW19" s="40"/>
+    </row>
+    <row r="20" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A20" s="39"/>
+      <c r="AW20" s="40"/>
+    </row>
+    <row r="21" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A21" s="39"/>
+      <c r="B21" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW21" s="40"/>
+    </row>
+    <row r="22" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A22" s="39"/>
+      <c r="AW22" s="40"/>
+    </row>
+    <row r="23" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A23" s="39"/>
+      <c r="AW23" s="40"/>
+    </row>
+    <row r="24" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A24" s="39"/>
+      <c r="AW24" s="40"/>
+    </row>
+    <row r="25" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A25" s="39"/>
+      <c r="AW25" s="40"/>
+    </row>
+    <row r="26" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A26" s="39"/>
+      <c r="AW26" s="40"/>
+    </row>
+    <row r="27" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A27" s="39"/>
+      <c r="AW27" s="40"/>
+    </row>
+    <row r="28" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A28" s="39"/>
+      <c r="AW28" s="40"/>
+    </row>
+    <row r="29" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A29" s="39"/>
+      <c r="AW29" s="40"/>
+    </row>
+    <row r="30" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A30" s="39"/>
+      <c r="AW30" s="40"/>
+    </row>
+    <row r="31" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A31" s="39"/>
+      <c r="AW31" s="40"/>
+    </row>
+    <row r="32" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A32" s="39"/>
+      <c r="AW32" s="40"/>
+    </row>
+    <row r="33" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A33" s="39"/>
+      <c r="AW33" s="40"/>
+    </row>
+    <row r="34" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A34" s="39"/>
+      <c r="AW34" s="40"/>
+    </row>
+    <row r="35" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A35" s="39"/>
+      <c r="AW35" s="40"/>
+    </row>
+    <row r="36" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A36" s="39"/>
+      <c r="AW36" s="40"/>
+    </row>
+    <row r="37" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A37" s="39"/>
+      <c r="AW37" s="40"/>
+    </row>
+    <row r="38" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A38" s="39"/>
+      <c r="AW38" s="40"/>
+    </row>
+    <row r="39" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A39" s="39"/>
+      <c r="AW39" s="40"/>
+    </row>
+    <row r="40" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A40" s="39"/>
+      <c r="AW40" s="40"/>
+    </row>
+    <row r="41" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A41" s="39"/>
+      <c r="AW41" s="40"/>
+    </row>
+    <row r="42" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A42" s="39"/>
+      <c r="AW42" s="40"/>
+    </row>
+    <row r="43" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A43" s="39"/>
+      <c r="AW43" s="40"/>
+    </row>
+    <row r="44" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A44" s="39"/>
+      <c r="AW44" s="40"/>
+    </row>
+    <row r="45" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A45" s="39"/>
       <c r="AW45" s="40"/>
     </row>
